--- a/Cinema.Test/TestDatabase/TestCinemaDatabase.xlsx
+++ b/Cinema.Test/TestDatabase/TestCinemaDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Cinema\Cinema.Test\TestDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE35F4AC-4286-4D8E-88BB-5EEB7D12BA7B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF70ACC-3819-4B89-AEE0-BBB8C6FCA132}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="825" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="825" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pricings" sheetId="12" r:id="rId1"/>
@@ -27,16 +27,15 @@
     <sheet name="Reviews" sheetId="14" r:id="rId12"/>
     <sheet name="Reservations" sheetId="13" r:id="rId13"/>
     <sheet name="Screenings" sheetId="15" r:id="rId14"/>
-    <sheet name="TimeFormula" sheetId="19" r:id="rId15"/>
-    <sheet name="SeatReservations" sheetId="16" r:id="rId16"/>
+    <sheet name="SeatReservations" sheetId="16" r:id="rId15"/>
+    <sheet name="TimeFormula" sheetId="19" r:id="rId16"/>
     <sheet name="Seat" sheetId="17" r:id="rId17"/>
-    <sheet name="HallPlan" sheetId="20" r:id="rId18"/>
-    <sheet name="Users" sheetId="18" r:id="rId19"/>
+    <sheet name="Users" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Reservations'!$A$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Reservations!$B$1:$F$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Seat!$A$1:$C$481</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">SeatReservations!$A$1:$E$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">SeatReservations!$A$1:$E$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="298">
   <si>
     <t>Id</t>
   </si>
@@ -926,12 +925,6 @@
     <t>Random time</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hall </t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -945,6 +938,15 @@
   </si>
   <si>
     <t>NumberOfRows</t>
+  </si>
+  <si>
+    <t>Test_Id</t>
+  </si>
+  <si>
+    <t>Test_Screening</t>
+  </si>
+  <si>
+    <t>Test_Reservation</t>
   </si>
 </sst>
 </file>
@@ -980,7 +982,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -993,26 +995,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1020,27 +1004,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -1049,40 +1018,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C020B776-E5BB-412F-B067-DC96E3574563}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="19">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
       <font>
         <i/>
         <family val="2"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1101,6 +1057,107 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
       <font>
@@ -1146,7 +1203,7 @@
     <tableColumn id="1" xr3:uid="{A0EB35E0-13B4-4E47-82EF-E8B4584BF384}" name="Id" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{B420936D-CABA-4B4C-B6A8-F9E87CB73CB3}" name="Movie" dataCellStyle="Normal 2"/>
     <tableColumn id="3" xr3:uid="{855FCCDD-4634-4066-9D2C-4C7551065706}" name="Genre" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{70B5F670-41E6-4660-A647-FAA172B7DA2F}" name="Column1" dataDxfId="8" dataCellStyle="Normal 2">
+    <tableColumn id="5" xr3:uid="{70B5F670-41E6-4660-A647-FAA172B7DA2F}" name="Column1" dataDxfId="18" dataCellStyle="Normal 2">
       <calculatedColumnFormula>IF(ISNUMBER(MATCH(GenreMovies[[#This Row],[Movie]],Movies[Id],0)),"DA","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1210,11 +1267,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{AE007114-7E7B-4C0B-9570-CDCA1BBE18F5}" name="Table14" displayName="Table14" ref="A1:F5" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:F5" xr:uid="{7483ACE1-6BAC-43EF-92B7-F03967F1654E}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{AE007114-7E7B-4C0B-9570-CDCA1BBE18F5}" name="Table14" displayName="Table14" ref="A1:G5" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:G5" xr:uid="{7483ACE1-6BAC-43EF-92B7-F03967F1654E}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1C890530-67FB-4AB7-AEB9-A8C2467B9F4A}" name="Id" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{9D607362-0935-4A26-B7F1-5EF4078BCC82}" name="Reservation" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{72DCF4E1-07A7-4D0B-88B0-836652005923}" name="Test_Reservation" dataDxfId="4" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>INDEX(Reservations[Test_Id],MATCH(Table14[[#This Row],[Reservation]],Reservations[Id],0))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{DE9958E9-C592-4FC8-B40E-D1185EA2F0CE}" name="OfferType" dataCellStyle="Normal 2"/>
     <tableColumn id="4" xr3:uid="{43687183-38A9-4756-A23F-25D4C7DC3991}" name="Price" dataCellStyle="Normal 2">
       <calculatedColumnFormula>F2*INDEX(Pricings!C:C,MATCH(Invoices!C2,Pricings!A:A,0))</calculatedColumnFormula>
@@ -1222,9 +1281,10 @@
     <tableColumn id="5" xr3:uid="{CE2CC64A-2FB0-453E-B6A2-E3CE6A11625B}" name="TaxAmount" dataCellStyle="Normal 2">
       <calculatedColumnFormula>D2*0.17</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{94D29325-5B98-4466-988B-34EB8A8515D3}" name="TicketQuantity" dataCellStyle="Normal 2">
-      <calculatedColumnFormula>COUNTIFS(SeatReservations!B:B,Invoices!B2)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{94D29325-5B98-4466-988B-34EB8A8515D3}" name="TicketQuantity" dataDxfId="3" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>COUNTIF(SeatReservations[Test_Reservation],Table14[[#This Row],[Test_Reservation]])</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="2" xr3:uid="{9D607362-0935-4A26-B7F1-5EF4078BCC82}" name="Reservation" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1255,8 +1315,8 @@
     <tableColumn id="1" xr3:uid="{33B071FA-D1A2-4EE1-8A11-1B41EF36DA50}" name="Id" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{80EFEE5D-3877-47B7-A653-C395CE4E1DA0}" name="Text" dataCellStyle="Normal 2"/>
     <tableColumn id="3" xr3:uid="{7BB22193-7724-416C-A424-73A5D14A0C0E}" name="Rating" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{83D0448D-F92F-4345-BC74-BF5E65AAAA91}" name="User" dataCellStyle="Normal 2">
-      <calculatedColumnFormula>INDEX(Reservations!B:B,MATCH(Reviews!E2,Reservations!F:F,0))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{83D0448D-F92F-4345-BC74-BF5E65AAAA91}" name="User" dataDxfId="0" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{1F03744F-1DA8-42B8-A071-B654FA143A9D}" name="Movie" dataCellStyle="Normal 2"/>
   </tableColumns>
@@ -1265,58 +1325,69 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C541F446-9D13-46A4-A289-CB4317264E58}" name="Reservations" displayName="Reservations" ref="A1:F27" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:F27" xr:uid="{44E094C5-A675-4866-BF5D-152109A5D6D9}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A11025DE-5EE9-4436-AD92-0F54E8E3F462}" name="Id" dataCellStyle="Normal 2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C541F446-9D13-46A4-A289-CB4317264E58}" name="Reservations" displayName="Reservations" ref="A1:H27" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:H27" xr:uid="{44E094C5-A675-4866-BF5D-152109A5D6D9}"/>
+  <tableColumns count="8">
+    <tableColumn id="7" xr3:uid="{3E5A4B86-ABBB-4464-9B07-C1147D7C0727}" name="Test_Id" dataDxfId="11" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{51636E58-E198-4DC4-A975-9848261DA615}" name="User" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{6C0005C1-1250-45A7-881D-45FAB8B667C8}" name="Test_Screening" dataDxfId="7" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{C1EB3557-3AE5-4470-AAFA-C8012DCDC167}" name="Hall (won't be transferred to database)" dataDxfId="2" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{02492577-30BC-4736-89A6-7BCB43316500}" name="Number of SeatReservations" dataDxfId="17" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>COUNTIF(SeatReservations!G:G,Reservations!G2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{6629A0B4-1EED-4F00-8980-01C1615D1E46}" name="Movie" dataDxfId="1" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{A11025DE-5EE9-4436-AD92-0F54E8E3F462}" name="Id" dataDxfId="10" dataCellStyle="Normal 2"/>
     <tableColumn id="3" xr3:uid="{685EEE67-989C-41CD-B7D9-5F5ACE2B4EB8}" name="Screening" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{C1EB3557-3AE5-4470-AAFA-C8012DCDC167}" name="Hall (won't be transferred to database)" dataDxfId="7" dataCellStyle="Normal 2">
-      <calculatedColumnFormula>INDEX(Screenings!C:C,MATCH(Reservations!C2,Screenings!A:A,0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{02492577-30BC-4736-89A6-7BCB43316500}" name="Number of SeatReservations" dataDxfId="6" dataCellStyle="Normal 2">
-      <calculatedColumnFormula>COUNTIF(SeatReservations!B:B,Reservations!A2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{6629A0B4-1EED-4F00-8980-01C1615D1E46}" name="Movie" dataDxfId="5" dataCellStyle="Normal 2">
-      <calculatedColumnFormula>INDEX(Screenings!D:D,MATCH(Reservations!C2,Screenings!A:A,0))</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E8FCB382-0F06-4B00-BB51-5CF195198A2D}" name="Screenings" displayName="Screenings" ref="A1:E43" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:E43" xr:uid="{2FE7B838-5D85-4F33-BF1C-B7164E2558EF}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C7A217C4-552D-43B2-A9C4-22BA059E6ECA}" name="Id" dataCellStyle="Normal 2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E8FCB382-0F06-4B00-BB51-5CF195198A2D}" name="Screenings" displayName="Screenings" ref="A1:G43" totalsRowShown="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:G43" xr:uid="{2FE7B838-5D85-4F33-BF1C-B7164E2558EF}"/>
+  <tableColumns count="7">
+    <tableColumn id="6" xr3:uid="{6BC9726B-99A4-415A-989A-A9EC08153BB1}" name="Test_Id" dataDxfId="9" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{539364A8-6EF5-4321-A026-F8A852BBDA3D}" name="Date" dataCellStyle="Normal 2"/>
     <tableColumn id="3" xr3:uid="{B71657CB-9510-4D9B-B4C9-B22340A8F784}" name="Hall" dataCellStyle="Normal 2"/>
     <tableColumn id="4" xr3:uid="{897845BE-E203-4364-860E-D5EED4AF9322}" name="Movie" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{2DF65473-B574-458B-95D8-96C0940CD035}" name="Time" dataDxfId="4" dataCellStyle="Normal 2">
+    <tableColumn id="5" xr3:uid="{2DF65473-B574-458B-95D8-96C0940CD035}" name="Time" dataDxfId="16" dataCellStyle="Normal 2">
       <calculatedColumnFormula>TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="7" xr3:uid="{768FF725-A2AA-422D-93EA-E88C9AB4EEEF}" name="DateAndTime" dataDxfId="15" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>TEXT(B2+E2,"YYYY-MM-DD HH:MM")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{C7A217C4-552D-43B2-A9C4-22BA059E6ECA}" name="Id" dataDxfId="8" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A8F9FB78-9D79-4C47-B311-2AA90F38626E}" name="SeatReservations" displayName="SeatReservations" ref="A1:E62" totalsRowShown="0">
-  <autoFilter ref="A1:E62" xr:uid="{63A6D2FC-92E3-443E-A56E-26E75291E08F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A8F9FB78-9D79-4C47-B311-2AA90F38626E}" name="SeatReservations" displayName="SeatReservations" ref="A1:F62" totalsRowShown="0">
+  <autoFilter ref="A1:F62" xr:uid="{63A6D2FC-92E3-443E-A56E-26E75291E08F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E62">
     <sortCondition ref="A1:A62"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{19D526EB-F838-4771-8AA9-3777E9DDA3E4}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{9991102F-AD1B-4960-9930-E5DE3AA36F16}" name="Reservation" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FF0082F9-EBBE-40BC-95C8-FA857F3AA9FC}" name="Seat" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{DA88F1EB-FB72-4592-9504-FC1925E91409}" name="Hall (won't be transferred to database)" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{8766965C-AC32-4D66-81C9-C9908F7B4540}" name="Test_Reservation" dataDxfId="6">
+      <calculatedColumnFormula>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{FF0082F9-EBBE-40BC-95C8-FA857F3AA9FC}" name="Seat" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{DA88F1EB-FB72-4592-9504-FC1925E91409}" name="Hall (won't be transferred to database)" dataDxfId="13">
       <calculatedColumnFormula>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C197013E-4683-45AD-8A50-B69A0D7698C5}" name="Screening (won't be transferred to database)" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{C197013E-4683-45AD-8A50-B69A0D7698C5}" name="Screening (won't be transferred to database)" dataDxfId="12">
       <calculatedColumnFormula>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="2" xr3:uid="{9991102F-AD1B-4960-9930-E5DE3AA36F16}" name="Reservation" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1586,7 +1657,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC6F4F4-4754-469E-ACBA-D9792DB4C1FF}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1675,11 +1746,11 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37F6C8C-09CC-46FC-BD13-90D55646D396}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2049,7 +2120,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFF2564-1E0D-44D6-B3D6-2985BAB85B9F}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2295,23 +2366,25 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F959223-B42B-4680-BF75-7013CD220E23}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView showOutlineSymbols="0" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="46.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2342,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <f>INDEX('Reservations'!B:B,MATCH(Reviews!E2,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>5</v>
       </c>
       <c r="E2" s="1">
@@ -2365,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E3,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>5</v>
       </c>
       <c r="E3" s="1">
@@ -2386,7 +2459,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E4,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>3</v>
       </c>
       <c r="E4" s="1">
@@ -2404,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E5,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>9</v>
       </c>
       <c r="E5" s="1">
@@ -2422,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E6,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>8</v>
       </c>
       <c r="E6" s="1">
@@ -2440,7 +2513,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E7,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>8</v>
       </c>
       <c r="E7" s="1">
@@ -2458,7 +2531,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E8,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>7</v>
       </c>
       <c r="E8" s="1">
@@ -2476,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E9,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>7</v>
       </c>
       <c r="E9" s="1">
@@ -2494,7 +2567,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E10,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>5</v>
       </c>
       <c r="E10" s="1">
@@ -2512,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E11,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>8</v>
       </c>
       <c r="E11" s="1">
@@ -2530,7 +2603,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E12,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>3</v>
       </c>
       <c r="E12" s="1">
@@ -2548,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E13,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>5</v>
       </c>
       <c r="E13" s="1">
@@ -2566,7 +2639,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E14,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>7</v>
       </c>
       <c r="E14" s="1">
@@ -2584,7 +2657,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E15,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>9</v>
       </c>
       <c r="E15" s="1">
@@ -2602,7 +2675,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E16,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>3</v>
       </c>
       <c r="E16" s="1">
@@ -2620,7 +2693,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E17,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>3</v>
       </c>
       <c r="E17" s="1">
@@ -2638,7 +2711,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E18,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>2</v>
       </c>
       <c r="E18" s="1">
@@ -2656,7 +2729,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E19,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>7</v>
       </c>
       <c r="E19" s="1">
@@ -2674,7 +2747,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E20,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>5</v>
       </c>
       <c r="E20" s="1">
@@ -2692,7 +2765,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E21,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>9</v>
       </c>
       <c r="E21" s="1">
@@ -2710,7 +2783,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E22,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>3</v>
       </c>
       <c r="E22" s="1">
@@ -2728,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E23,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>8</v>
       </c>
       <c r="E23" s="1">
@@ -2746,7 +2819,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E24,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>2</v>
       </c>
       <c r="E24" s="1">
@@ -2764,7 +2837,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E25,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>3</v>
       </c>
       <c r="E25" s="1">
@@ -2782,7 +2855,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E26,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>7</v>
       </c>
       <c r="E26" s="1">
@@ -2800,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E27,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>3</v>
       </c>
       <c r="E27" s="1">
@@ -2818,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E28,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>3</v>
       </c>
       <c r="E28" s="1">
@@ -2836,7 +2909,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E29,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>2</v>
       </c>
       <c r="E29" s="1">
@@ -2854,7 +2927,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E30,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>3</v>
       </c>
       <c r="E30" s="1">
@@ -2872,7 +2945,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E31,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>8</v>
       </c>
       <c r="E31" s="1">
@@ -2890,7 +2963,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E32,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>9</v>
       </c>
       <c r="E32" s="1">
@@ -2908,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E33,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>9</v>
       </c>
       <c r="E33" s="1">
@@ -2926,7 +2999,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E34,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>3</v>
       </c>
       <c r="E34" s="1">
@@ -2944,7 +3017,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E35,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>3</v>
       </c>
       <c r="E35" s="1">
@@ -2962,7 +3035,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E36,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>8</v>
       </c>
       <c r="E36" s="1">
@@ -2980,7 +3053,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E37,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>7</v>
       </c>
       <c r="E37" s="1">
@@ -2998,7 +3071,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E38,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>5</v>
       </c>
       <c r="E38" s="1">
@@ -3016,7 +3089,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E39,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>9</v>
       </c>
       <c r="E39" s="1">
@@ -3034,7 +3107,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="1">
-        <f>INDEX(Reservations!B:B,MATCH(Reviews!E40,Reservations!F:F,0))</f>
+        <f>INDEX(Reservations[User],MATCH(Table13[[#This Row],[Movie]],Reservations[Movie],0))</f>
         <v>7</v>
       </c>
       <c r="E40" s="1">
@@ -3052,34 +3125,36 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A13ED6-4105-4280-90EE-CA44886983C3}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="9" max="9" width="15.88671875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
+      <c r="C1" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>164</v>
@@ -3090,604 +3165,846 @@
       <c r="F1" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>42</v>
+      </c>
+      <c r="D2" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
         <v>13</v>
       </c>
-      <c r="B2" s="11">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="H2" s="9">
         <v>826</v>
       </c>
-      <c r="D2" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C2,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C2,Screenings!A:A,0))</f>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>37</v>
+      </c>
+      <c r="D3" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>118</v>
+      </c>
+      <c r="H3" s="9">
+        <v>744</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>39</v>
+      </c>
+      <c r="D4" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>172</v>
+      </c>
+      <c r="H4" s="9">
+        <v>787</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>33</v>
+      </c>
+      <c r="D5" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>188</v>
+      </c>
+      <c r="H5" s="9">
+        <v>694</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>39</v>
+      </c>
+      <c r="D6" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>283</v>
+      </c>
+      <c r="H6" s="9">
+        <v>787</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>42</v>
+      </c>
+      <c r="D7" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>118</v>
-      </c>
-      <c r="B3" s="11">
+      <c r="G7" s="1">
+        <v>394</v>
+      </c>
+      <c r="H7" s="9">
+        <v>826</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="C3" s="11">
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>33</v>
+      </c>
+      <c r="D8" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>473</v>
+      </c>
+      <c r="H8" s="9">
+        <v>694</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>32</v>
+      </c>
+      <c r="D9" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>584</v>
+      </c>
+      <c r="H9" s="9">
+        <v>687</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>36</v>
+      </c>
+      <c r="D10" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>11</v>
+      </c>
+      <c r="G10" s="1">
+        <v>723</v>
+      </c>
+      <c r="H10" s="9">
+        <v>711</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>37</v>
+      </c>
+      <c r="D11" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>759</v>
+      </c>
+      <c r="H11" s="9">
         <v>744</v>
       </c>
-      <c r="D3" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C3,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A3)</f>
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C3,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>172</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>41</v>
+      </c>
+      <c r="D12" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>7</v>
+      </c>
+      <c r="G12" s="1">
+        <v>822</v>
+      </c>
+      <c r="H12" s="9">
+        <v>812</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3</v>
+      </c>
+      <c r="C13" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>34</v>
+      </c>
+      <c r="D13" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>844</v>
+      </c>
+      <c r="H13" s="9">
+        <v>697</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>37</v>
+      </c>
+      <c r="D14" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>995</v>
+      </c>
+      <c r="H14" s="9">
+        <v>744</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>7</v>
+      </c>
+      <c r="C15" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>37</v>
+      </c>
+      <c r="D15" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>2118</v>
+      </c>
+      <c r="H15" s="10">
+        <v>744</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
         <v>5</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C16" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>39</v>
+      </c>
+      <c r="D16" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G16)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2172</v>
+      </c>
+      <c r="H16" s="10">
         <v>787</v>
       </c>
-      <c r="D4" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C4,Screenings!A:A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A4)</f>
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C4,Screenings!A:A,0))</f>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>33</v>
+      </c>
+      <c r="D17" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>9</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2188</v>
+      </c>
+      <c r="H17" s="10">
+        <v>694</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>8</v>
+      </c>
+      <c r="C18" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>39</v>
+      </c>
+      <c r="D18" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G18)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>188</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="G18" s="8">
+        <v>2283</v>
+      </c>
+      <c r="H18" s="10">
+        <v>787</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>5</v>
+      </c>
+      <c r="C19" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>42</v>
+      </c>
+      <c r="D19" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G19)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>10</v>
+      </c>
+      <c r="G19" s="8">
+        <v>2394</v>
+      </c>
+      <c r="H19" s="10">
+        <v>826</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>6</v>
+      </c>
+      <c r="C20" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>33</v>
+      </c>
+      <c r="D20" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E20" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G20)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
         <v>9</v>
       </c>
-      <c r="C5" s="11">
+      <c r="G20" s="8">
+        <v>2473</v>
+      </c>
+      <c r="H20" s="10">
         <v>694</v>
       </c>
-      <c r="D5" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C5,Screenings!A:A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A5)</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C5,Screenings!A:A,0))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>283</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>41</v>
+      </c>
+      <c r="D21" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G21)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>7</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2528</v>
+      </c>
+      <c r="H21" s="10">
+        <v>812</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>32</v>
+      </c>
+      <c r="D22" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G22)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>4</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2584</v>
+      </c>
+      <c r="H22" s="10">
+        <v>687</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>3</v>
+      </c>
+      <c r="C23" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>36</v>
+      </c>
+      <c r="D23" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>11</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2723</v>
+      </c>
+      <c r="H23" s="10">
+        <v>711</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
         <v>8</v>
       </c>
-      <c r="C6" s="11">
-        <v>787</v>
-      </c>
-      <c r="D6" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C6,Screenings!A:A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A6)</f>
+      <c r="C24" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>37</v>
+      </c>
+      <c r="D24" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G24)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2759</v>
+      </c>
+      <c r="H24" s="10">
+        <v>744</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>8</v>
+      </c>
+      <c r="C25" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>41</v>
+      </c>
+      <c r="D25" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E25" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G25)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>7</v>
+      </c>
+      <c r="G25" s="8">
+        <v>2822</v>
+      </c>
+      <c r="H25" s="10">
+        <v>812</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>3</v>
+      </c>
+      <c r="C26" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>34</v>
+      </c>
+      <c r="D26" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G26)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
         <v>4</v>
       </c>
-      <c r="F6" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C6,Screenings!A:A,0))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>394</v>
-      </c>
-      <c r="B7" s="11">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11">
-        <v>826</v>
-      </c>
-      <c r="D7" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C7,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A7)</f>
-        <v>3</v>
-      </c>
-      <c r="F7" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C7,Screenings!A:A,0))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>473</v>
-      </c>
-      <c r="B8" s="11">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11">
-        <v>694</v>
-      </c>
-      <c r="D8" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C8,Screenings!A:A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A8)</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C8,Screenings!A:A,0))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>584</v>
-      </c>
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
-        <v>687</v>
-      </c>
-      <c r="D9" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C9,Screenings!A:A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E9" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A9)</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C9,Screenings!A:A,0))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>723</v>
-      </c>
-      <c r="B10" s="11">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11">
-        <v>711</v>
-      </c>
-      <c r="D10" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C10,Screenings!A:A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E10" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A10)</f>
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C10,Screenings!A:A,0))</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>759</v>
-      </c>
-      <c r="B11" s="11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="G26" s="8">
+        <v>2844</v>
+      </c>
+      <c r="H26" s="10">
+        <v>697</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>7</v>
+      </c>
+      <c r="C27" s="12">
+        <f>INDEX(Screenings[Test_Id],MATCH(Reservations[[#This Row],[Screening]],Screenings[Id],0))</f>
+        <v>37</v>
+      </c>
+      <c r="D27" s="4">
+        <f>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G27)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <f>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>2995</v>
+      </c>
+      <c r="H27" s="10">
         <v>744</v>
       </c>
-      <c r="D11" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C11,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A11)</f>
-        <v>2</v>
-      </c>
-      <c r="F11" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C11,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>822</v>
-      </c>
-      <c r="B12" s="11">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11">
-        <v>812</v>
-      </c>
-      <c r="D12" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C12,Screenings!A:A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A12)</f>
-        <v>2</v>
-      </c>
-      <c r="F12" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C12,Screenings!A:A,0))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>844</v>
-      </c>
-      <c r="B13" s="11">
-        <v>3</v>
-      </c>
-      <c r="C13" s="11">
-        <v>697</v>
-      </c>
-      <c r="D13" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C13,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A13)</f>
-        <v>3</v>
-      </c>
-      <c r="F13" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C13,Screenings!A:A,0))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>995</v>
-      </c>
-      <c r="B14" s="11">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11">
-        <v>744</v>
-      </c>
-      <c r="D14" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C14,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A14)</f>
-        <v>4</v>
-      </c>
-      <c r="F14" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C14,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>2118</v>
-      </c>
-      <c r="B15" s="12">
-        <v>7</v>
-      </c>
-      <c r="C15" s="12">
-        <v>744</v>
-      </c>
-      <c r="D15" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C15,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A15)</f>
-        <v>2</v>
-      </c>
-      <c r="F15" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C15,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>2172</v>
-      </c>
-      <c r="B16" s="12">
-        <v>5</v>
-      </c>
-      <c r="C16" s="12">
-        <v>787</v>
-      </c>
-      <c r="D16" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C16,Screenings!A:A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E16" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A16)</f>
-        <v>3</v>
-      </c>
-      <c r="F16" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C16,Screenings!A:A,0))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>2188</v>
-      </c>
-      <c r="B17" s="12">
-        <v>9</v>
-      </c>
-      <c r="C17" s="12">
-        <v>694</v>
-      </c>
-      <c r="D17" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C17,Screenings!A:A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E17" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A17)</f>
-        <v>6</v>
-      </c>
-      <c r="F17" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C17,Screenings!A:A,0))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>2283</v>
-      </c>
-      <c r="B18" s="12">
-        <v>8</v>
-      </c>
-      <c r="C18" s="12">
-        <v>787</v>
-      </c>
-      <c r="D18" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C18,Screenings!A:A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E18" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A18)</f>
-        <v>2</v>
-      </c>
-      <c r="F18" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C18,Screenings!A:A,0))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>2394</v>
-      </c>
-      <c r="B19" s="12">
-        <v>5</v>
-      </c>
-      <c r="C19" s="12">
-        <v>826</v>
-      </c>
-      <c r="D19" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C19,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A19)</f>
-        <v>3</v>
-      </c>
-      <c r="F19" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C19,Screenings!A:A,0))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>2473</v>
-      </c>
-      <c r="B20" s="12">
-        <v>6</v>
-      </c>
-      <c r="C20" s="12">
-        <v>694</v>
-      </c>
-      <c r="D20" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C20,Screenings!A:A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E20" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A20)</f>
-        <v>4</v>
-      </c>
-      <c r="F20" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C20,Screenings!A:A,0))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>2528</v>
-      </c>
-      <c r="B21" s="12">
-        <v>1</v>
-      </c>
-      <c r="C21" s="12">
-        <v>812</v>
-      </c>
-      <c r="D21" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C21,Screenings!A:A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E21" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A21)</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C21,Screenings!A:A,0))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>2584</v>
-      </c>
-      <c r="B22" s="12">
-        <v>1</v>
-      </c>
-      <c r="C22" s="12">
-        <v>687</v>
-      </c>
-      <c r="D22" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C22,Screenings!A:A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E22" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A22)</f>
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C22,Screenings!A:A,0))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <v>2723</v>
-      </c>
-      <c r="B23" s="12">
-        <v>3</v>
-      </c>
-      <c r="C23" s="12">
-        <v>711</v>
-      </c>
-      <c r="D23" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C23,Screenings!A:A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A23)</f>
-        <v>3</v>
-      </c>
-      <c r="F23" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C23,Screenings!A:A,0))</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <v>2759</v>
-      </c>
-      <c r="B24" s="12">
-        <v>8</v>
-      </c>
-      <c r="C24" s="12">
-        <v>744</v>
-      </c>
-      <c r="D24" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C24,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A24)</f>
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C24,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>2822</v>
-      </c>
-      <c r="B25" s="12">
-        <v>8</v>
-      </c>
-      <c r="C25" s="12">
-        <v>812</v>
-      </c>
-      <c r="D25" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C25,Screenings!A:A,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E25" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A25)</f>
-        <v>3</v>
-      </c>
-      <c r="F25" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C25,Screenings!A:A,0))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <v>2844</v>
-      </c>
-      <c r="B26" s="12">
-        <v>3</v>
-      </c>
-      <c r="C26" s="12">
-        <v>697</v>
-      </c>
-      <c r="D26" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C26,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A26)</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C26,Screenings!A:A,0))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
-        <v>2995</v>
-      </c>
-      <c r="B27" s="12">
-        <v>7</v>
-      </c>
-      <c r="C27" s="12">
-        <v>744</v>
-      </c>
-      <c r="D27" s="4">
-        <f>INDEX(Screenings!C:C,MATCH(Reservations!C27,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="4">
-        <f>COUNTIF(SeatReservations!B:B,Reservations!A27)</f>
-        <v>3</v>
-      </c>
-      <c r="F27" s="4">
-        <f>INDEX(Screenings!D:D,MATCH(Reservations!C27,Screenings!A:A,0))</f>
-        <v>1</v>
-      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3702,26 +4019,30 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8205CD38-C5A0-499C-BC15-57FA0E48CB08}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>209</v>
@@ -3735,10 +4056,17 @@
       <c r="E1" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>111</v>
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>217</v>
@@ -3751,12 +4079,20 @@
       </c>
       <c r="E2" s="6">
         <f t="shared" ref="E2" ca="1" si="0">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.74305555555555547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>155</v>
+        <v>0.6875</v>
+      </c>
+      <c r="F2" s="11" t="str">
+        <f t="shared" ref="F2:F43" ca="1" si="1">TEXT(B2+E2,"YYYY-MM-DD HH:MM")</f>
+        <v>2019-02-17 16:30</v>
+      </c>
+      <c r="G2" s="1">
+        <v>111</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>62</v>
@@ -3768,13 +4104,21 @@
         <v>7</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E6" ca="1" si="1">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.94444444444444453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>157</v>
+        <f t="shared" ref="E3:E6" ca="1" si="2">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="F3" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-08-03 13:30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>155</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>227</v>
@@ -3786,13 +4130,21 @@
         <v>7</v>
       </c>
       <c r="E4" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="F4" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>168</v>
+        <v>2019-08-21 19:20</v>
+      </c>
+      <c r="G4" s="1">
+        <v>157</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>228</v>
@@ -3804,13 +4156,21 @@
         <v>6</v>
       </c>
       <c r="E5" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F5" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>192</v>
+        <v>2019-07-28 17:20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>168</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>235</v>
@@ -3822,13 +4182,21 @@
         <v>9</v>
       </c>
       <c r="E6" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F6" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82638888888888884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>243</v>
+        <v>2019-09-22 15:10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>192</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>214</v>
@@ -3840,13 +4208,21 @@
         <v>2</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" ref="E7:E8" ca="1" si="2">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>249</v>
+        <f t="shared" ref="E7:E8" ca="1" si="3">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="F7" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2018-11-26 16:20</v>
+      </c>
+      <c r="G7" s="1">
+        <v>243</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>228</v>
@@ -3858,13 +4234,21 @@
         <v>5</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.93055555555555547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>306</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="F8" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-07-28 22:40</v>
+      </c>
+      <c r="G8" s="1">
+        <v>249</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>238</v>
@@ -3876,13 +4260,21 @@
         <v>2</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" ref="E9" ca="1" si="3">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.82638888888888884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>341</v>
+        <f t="shared" ref="E9" ca="1" si="4">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F9" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2018-12-25 13:10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>306</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>239</v>
@@ -3894,13 +4286,21 @@
         <v>7</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" ref="E10:E11" ca="1" si="4">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>362</v>
+        <f t="shared" ref="E10:E11" ca="1" si="5">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F10" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-03-07 18:30</v>
+      </c>
+      <c r="G10" s="1">
+        <v>341</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>233</v>
@@ -3912,13 +4312,21 @@
         <v>1</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.86805555555555547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>395</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F11" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-03-28 19:00</v>
+      </c>
+      <c r="G11" s="1">
+        <v>362</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>214</v>
@@ -3930,13 +4338,21 @@
         <v>3</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" ref="E12:E18" ca="1" si="5">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.63194444444444442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>415</v>
+        <f t="shared" ref="E12:E18" ca="1" si="6">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F12" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2018-11-26 13:50</v>
+      </c>
+      <c r="G12" s="1">
+        <v>395</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>241</v>
@@ -3948,13 +4364,21 @@
         <v>12</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.63194444444444442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>420</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="F13" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-09-29 20:10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>415</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>220</v>
@@ -3966,13 +4390,21 @@
         <v>1</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>430</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="F14" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-08-28 22:10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>420</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>225</v>
@@ -3984,13 +4416,21 @@
         <v>8</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.65277777777777779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>431</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="F15" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-09-30 21:50</v>
+      </c>
+      <c r="G15" s="1">
+        <v>430</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>211</v>
@@ -4002,13 +4442,21 @@
         <v>4</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.56944444444444442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>433</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="F16" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2018-11-30 22:20</v>
+      </c>
+      <c r="G16" s="1">
+        <v>431</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>242</v>
@@ -4020,13 +4468,21 @@
         <v>10</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>442</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F17" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-05-28 23:00</v>
+      </c>
+      <c r="G17" s="1">
+        <v>433</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>226</v>
@@ -4038,13 +4494,21 @@
         <v>1</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>462</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F18" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-07-20 20:30</v>
+      </c>
+      <c r="G18" s="1">
+        <v>442</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>223</v>
@@ -4056,13 +4520,21 @@
         <v>3</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" ref="E19:E23" ca="1" si="6">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.90277777777777779</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>487</v>
+        <f t="shared" ref="E19:E23" ca="1" si="7">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="F19" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-08-17 15:40</v>
+      </c>
+      <c r="G19" s="1">
+        <v>462</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>237</v>
@@ -4074,13 +4546,21 @@
         <v>10</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.79861111111111116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>492</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F20" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-07-15 13:50</v>
+      </c>
+      <c r="G20" s="1">
+        <v>487</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>244</v>
@@ -4092,13 +4572,21 @@
         <v>12</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>493</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="F21" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-06-13 18:20</v>
+      </c>
+      <c r="G21" s="1">
+        <v>492</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>214</v>
@@ -4110,13 +4598,21 @@
         <v>5</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.95138888888888884</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>494</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="F22" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2018-11-26 19:50</v>
+      </c>
+      <c r="G22" s="1">
+        <v>493</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>231</v>
@@ -4128,13 +4624,21 @@
         <v>8</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.75694444444444453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>521</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.875</v>
+      </c>
+      <c r="F23" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-06-16 21:00</v>
+      </c>
+      <c r="G23" s="1">
+        <v>494</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>219</v>
@@ -4146,13 +4650,21 @@
         <v>2</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" ref="E24:E29" ca="1" si="7">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.65277777777777779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>523</v>
+        <f t="shared" ref="E24:E29" ca="1" si="8">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F24" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-09-23 15:30</v>
+      </c>
+      <c r="G24" s="1">
+        <v>521</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>224</v>
@@ -4164,13 +4676,21 @@
         <v>6</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.86111111111111116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>524</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="F25" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-10-31 21:50</v>
+      </c>
+      <c r="G25" s="1">
+        <v>523</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>216</v>
@@ -4182,13 +4702,21 @@
         <v>2</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.61805555555555558</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>562</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="F26" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-02-12 20:40</v>
+      </c>
+      <c r="G26" s="1">
+        <v>524</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>230</v>
@@ -4200,13 +4728,21 @@
         <v>8</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.86805555555555547</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>568</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="F27" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2018-12-07 22:50</v>
+      </c>
+      <c r="G27" s="1">
+        <v>562</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>245</v>
@@ -4218,13 +4754,21 @@
         <v>1</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>570</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F28" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-09-17 19:00</v>
+      </c>
+      <c r="G28" s="1">
+        <v>568</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>240</v>
@@ -4236,13 +4780,21 @@
         <v>11</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.65277777777777779</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>627</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0.6875</v>
+      </c>
+      <c r="F29" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-06-23 16:30</v>
+      </c>
+      <c r="G29" s="1">
+        <v>570</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>246</v>
@@ -4254,13 +4806,21 @@
         <v>3</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" ref="E30" ca="1" si="8">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>643</v>
+        <f t="shared" ref="E30" ca="1" si="9">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="F30" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-08-27 14:40</v>
+      </c>
+      <c r="G30" s="1">
+        <v>627</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>247</v>
@@ -4272,13 +4832,21 @@
         <v>9</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" ref="E31:E36" ca="1" si="9">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.72916666666666663</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>669</v>
+        <f t="shared" ref="E31:E36" ca="1" si="10">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="F31" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-09-19 15:20</v>
+      </c>
+      <c r="G31" s="1">
+        <v>643</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>232</v>
@@ -4290,13 +4858,21 @@
         <v>4</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>687</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.6875</v>
+      </c>
+      <c r="F32" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-11-04 16:30</v>
+      </c>
+      <c r="G32" s="1">
+        <v>669</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>218</v>
@@ -4308,13 +4884,21 @@
         <v>4</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.88194444444444453</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>694</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F33" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-07-14 20:30</v>
+      </c>
+      <c r="G33" s="1">
+        <v>687</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>222</v>
@@ -4326,13 +4910,21 @@
         <v>9</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>697</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="F34" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-03-08 20:40</v>
+      </c>
+      <c r="G34" s="1">
+        <v>694</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>248</v>
@@ -4344,13 +4936,21 @@
         <v>4</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.61111111111111105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>705</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.9375</v>
+      </c>
+      <c r="F35" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-09-11 22:30</v>
+      </c>
+      <c r="G35" s="1">
+        <v>697</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>221</v>
@@ -4362,13 +4962,21 @@
         <v>10</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>711</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F36" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-10-18 18:40</v>
+      </c>
+      <c r="G36" s="1">
+        <v>705</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>215</v>
@@ -4380,13 +4988,21 @@
         <v>11</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" ref="E37:E39" ca="1" si="10">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.72222222222222221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>744</v>
+        <f t="shared" ref="E37:E39" ca="1" si="11">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="F37" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-03-18 15:40</v>
+      </c>
+      <c r="G37" s="1">
+        <v>711</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>229</v>
@@ -4398,13 +5014,21 @@
         <v>1</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.63888888888888895</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>754</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="F38" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-07-26 17:40</v>
+      </c>
+      <c r="G38" s="1">
+        <v>744</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>213</v>
@@ -4416,13 +5040,21 @@
         <v>8</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.95138888888888884</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>787</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="F39" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2018-11-19 15:50</v>
+      </c>
+      <c r="G39" s="1">
+        <v>754</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>234</v>
@@ -4434,13 +5066,21 @@
         <v>4</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" ref="E40:E43" ca="1" si="11">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.74305555555555547</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>790</v>
+        <f t="shared" ref="E40:E43" ca="1" si="12">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="F40" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-08-01 19:40</v>
+      </c>
+      <c r="G40" s="1">
+        <v>787</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>236</v>
@@ -4452,13 +5092,21 @@
         <v>2</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.65972222222222221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>812</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="F41" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-02-18 13:40</v>
+      </c>
+      <c r="G41" s="1">
+        <v>790</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>212</v>
@@ -4470,13 +5118,21 @@
         <v>7</v>
       </c>
       <c r="E42" s="6">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>826</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F42" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-06-07 17:00</v>
+      </c>
+      <c r="G42" s="1">
+        <v>812</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>243</v>
@@ -4488,20 +5144,1495 @@
         <v>10</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.76388888888888884</v>
-      </c>
+        <f t="shared" ca="1" si="12"/>
+        <v>0.6875</v>
+      </c>
+      <c r="F43" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2019-08-24 16:30</v>
+      </c>
+      <c r="G43" s="1">
+        <v>826</v>
+      </c>
+      <c r="I43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72635017-2D85-47A8-8416-FD5921DFE1F6}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" customWidth="1"/>
+    <col min="11" max="11" width="6.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" t="e">
+        <f>COUNT(#REF!)-COUNTIFS(#REF!,1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>94</v>
+      </c>
+      <c r="D2">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>826</v>
+      </c>
+      <c r="F2">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>697</v>
+      </c>
+      <c r="F3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>319</v>
+      </c>
+      <c r="D4">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>787</v>
+      </c>
+      <c r="F4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>241</v>
+      </c>
+      <c r="B5" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>437</v>
+      </c>
+      <c r="D5">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>787</v>
+      </c>
+      <c r="F5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>257</v>
+      </c>
+      <c r="B6" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>744</v>
+      </c>
+      <c r="F6">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>303</v>
+      </c>
+      <c r="B7" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>306</v>
+      </c>
+      <c r="D7">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>787</v>
+      </c>
+      <c r="F7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>365</v>
+      </c>
+      <c r="B8" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>297</v>
+      </c>
+      <c r="D8">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>711</v>
+      </c>
+      <c r="F8">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>425</v>
+      </c>
+      <c r="B9" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>307</v>
+      </c>
+      <c r="D9">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>787</v>
+      </c>
+      <c r="F9">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>634</v>
+      </c>
+      <c r="B10" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>309</v>
+      </c>
+      <c r="D10">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>687</v>
+      </c>
+      <c r="F10">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>714</v>
+      </c>
+      <c r="B11" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>405</v>
+      </c>
+      <c r="D11">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>694</v>
+      </c>
+      <c r="F11">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>824</v>
+      </c>
+      <c r="B12" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>106</v>
+      </c>
+      <c r="D12">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>744</v>
+      </c>
+      <c r="F12">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>933</v>
+      </c>
+      <c r="B13" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>260</v>
+      </c>
+      <c r="D13">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>787</v>
+      </c>
+      <c r="F13">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1036</v>
+      </c>
+      <c r="B14" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>161</v>
+      </c>
+      <c r="D14">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>744</v>
+      </c>
+      <c r="F14">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1239</v>
+      </c>
+      <c r="B15" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>334</v>
+      </c>
+      <c r="D15">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>694</v>
+      </c>
+      <c r="F15">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1253</v>
+      </c>
+      <c r="B16" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>744</v>
+      </c>
+      <c r="F16">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1315</v>
+      </c>
+      <c r="B17" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>364</v>
+      </c>
+      <c r="D17">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>812</v>
+      </c>
+      <c r="F17">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1346</v>
+      </c>
+      <c r="B18" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>744</v>
+      </c>
+      <c r="F18">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1616</v>
+      </c>
+      <c r="B19" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>457</v>
+      </c>
+      <c r="D19">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>694</v>
+      </c>
+      <c r="F19">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1698</v>
+      </c>
+      <c r="B20" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>744</v>
+      </c>
+      <c r="F20">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1729</v>
+      </c>
+      <c r="B21" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>384</v>
+      </c>
+      <c r="D21">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>812</v>
+      </c>
+      <c r="F21">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1764</v>
+      </c>
+      <c r="B22" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>428</v>
+      </c>
+      <c r="D22">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>694</v>
+      </c>
+      <c r="F22">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1797</v>
+      </c>
+      <c r="B23" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>697</v>
+      </c>
+      <c r="F23">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2036</v>
+      </c>
+      <c r="B24" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>121</v>
+      </c>
+      <c r="D24">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>744</v>
+      </c>
+      <c r="F24">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2118</v>
+      </c>
+      <c r="B25" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>177</v>
+      </c>
+      <c r="D25">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>826</v>
+      </c>
+      <c r="F25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2124</v>
+      </c>
+      <c r="B26" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>245</v>
+      </c>
+      <c r="D26">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>711</v>
+      </c>
+      <c r="F26">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2228</v>
+      </c>
+      <c r="B27" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>826</v>
+      </c>
+      <c r="F27">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2249</v>
+      </c>
+      <c r="B28" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>451</v>
+      </c>
+      <c r="D28">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>812</v>
+      </c>
+      <c r="F28">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2389</v>
+      </c>
+      <c r="B29" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>408</v>
+      </c>
+      <c r="D29">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>694</v>
+      </c>
+      <c r="F29">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2397</v>
+      </c>
+      <c r="B30" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>200</v>
+      </c>
+      <c r="D30">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>744</v>
+      </c>
+      <c r="F30">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2484</v>
+      </c>
+      <c r="B31" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>265</v>
+      </c>
+      <c r="D31">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>711</v>
+      </c>
+      <c r="F31">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2592</v>
+      </c>
+      <c r="B32" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>196</v>
+      </c>
+      <c r="D32">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>697</v>
+      </c>
+      <c r="F32">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2678</v>
+      </c>
+      <c r="B33" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>219</v>
+      </c>
+      <c r="D33">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>697</v>
+      </c>
+      <c r="F33">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2686</v>
+      </c>
+      <c r="B34" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>298</v>
+      </c>
+      <c r="D34">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>787</v>
+      </c>
+      <c r="F34">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2821</v>
+      </c>
+      <c r="B35" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>127</v>
+      </c>
+      <c r="D35">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>744</v>
+      </c>
+      <c r="F35">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2939</v>
+      </c>
+      <c r="B36" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>320</v>
+      </c>
+      <c r="D36">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>694</v>
+      </c>
+      <c r="F36">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2945</v>
+      </c>
+      <c r="B37" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>408</v>
+      </c>
+      <c r="D37">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>687</v>
+      </c>
+      <c r="F37">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3047</v>
+      </c>
+      <c r="B38" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>437</v>
+      </c>
+      <c r="D38">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>711</v>
+      </c>
+      <c r="F38">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3162</v>
+      </c>
+      <c r="B39" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>62</v>
+      </c>
+      <c r="D39">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>744</v>
+      </c>
+      <c r="F39">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3324</v>
+      </c>
+      <c r="B40" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>455</v>
+      </c>
+      <c r="D40">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>787</v>
+      </c>
+      <c r="F40">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3327</v>
+      </c>
+      <c r="B41" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>744</v>
+      </c>
+      <c r="F41">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3530</v>
+      </c>
+      <c r="B42" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>69</v>
+      </c>
+      <c r="D42">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>744</v>
+      </c>
+      <c r="F42">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3578</v>
+      </c>
+      <c r="B43" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>447</v>
+      </c>
+      <c r="D43">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>694</v>
+      </c>
+      <c r="F43">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3755</v>
+      </c>
+      <c r="B44" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>273</v>
+      </c>
+      <c r="D44">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>787</v>
+      </c>
+      <c r="F44">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3803</v>
+      </c>
+      <c r="B45" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>393</v>
+      </c>
+      <c r="D45">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>787</v>
+      </c>
+      <c r="F45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3919</v>
+      </c>
+      <c r="B46" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>425</v>
+      </c>
+      <c r="D46">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>694</v>
+      </c>
+      <c r="F46">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4037</v>
+      </c>
+      <c r="B47" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>320</v>
+      </c>
+      <c r="D47">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>787</v>
+      </c>
+      <c r="F47">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>4085</v>
+      </c>
+      <c r="B48" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>301</v>
+      </c>
+      <c r="D48">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>787</v>
+      </c>
+      <c r="F48">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4284</v>
+      </c>
+      <c r="B49" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>24</v>
+      </c>
+      <c r="D49">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>826</v>
+      </c>
+      <c r="F49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4295</v>
+      </c>
+      <c r="B50" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>334</v>
+      </c>
+      <c r="D50">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>694</v>
+      </c>
+      <c r="F50">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4461</v>
+      </c>
+      <c r="B51" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>302</v>
+      </c>
+      <c r="D51">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>812</v>
+      </c>
+      <c r="F51">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>4474</v>
+      </c>
+      <c r="B52" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>55</v>
+      </c>
+      <c r="D52">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>744</v>
+      </c>
+      <c r="F52">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>4620</v>
+      </c>
+      <c r="B53" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>57</v>
+      </c>
+      <c r="D53">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>826</v>
+      </c>
+      <c r="F53">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>4748</v>
+      </c>
+      <c r="B54" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>321</v>
+      </c>
+      <c r="D54">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>694</v>
+      </c>
+      <c r="F54">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4818</v>
+      </c>
+      <c r="B55" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>424</v>
+      </c>
+      <c r="D55">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>812</v>
+      </c>
+      <c r="F55">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>4858</v>
+      </c>
+      <c r="B56" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>164</v>
+      </c>
+      <c r="D56">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>826</v>
+      </c>
+      <c r="F56">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>4942</v>
+      </c>
+      <c r="B57" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>340</v>
+      </c>
+      <c r="D57">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>694</v>
+      </c>
+      <c r="F57">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>5055</v>
+      </c>
+      <c r="B58" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>84</v>
+      </c>
+      <c r="D58">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>826</v>
+      </c>
+      <c r="F58">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>5305</v>
+      </c>
+      <c r="B59" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>22</v>
+      </c>
+      <c r="C59">
+        <v>260</v>
+      </c>
+      <c r="D59">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>711</v>
+      </c>
+      <c r="F59">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>5649</v>
+      </c>
+      <c r="B60" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>390</v>
+      </c>
+      <c r="D60">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>812</v>
+      </c>
+      <c r="F60">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>5836</v>
+      </c>
+      <c r="B61" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>367</v>
+      </c>
+      <c r="D61">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>694</v>
+      </c>
+      <c r="F61">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>5890</v>
+      </c>
+      <c r="B62" s="13">
+        <f>INDEX(Reservations[Test_Id],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>181</v>
+      </c>
+      <c r="D62">
+        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>744</v>
+      </c>
+      <c r="F62">
+        <v>2118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADEAE0A-CFBA-4DC2-9E7A-FDB8937084BE}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -4522,1239 +6653,22 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f ca="1">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.92361111111111116</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72635017-2D85-47A8-8416-FD5921DFE1F6}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:J62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H1" t="e">
-        <f>COUNT(#REF!)-COUNTIFS(#REF!,1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>2394</v>
-      </c>
-      <c r="C2">
-        <v>94</v>
-      </c>
-      <c r="D2">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>826</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>844</v>
-      </c>
-      <c r="C3">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>283</v>
-      </c>
-      <c r="C4">
-        <v>319</v>
-      </c>
-      <c r="D4">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>241</v>
-      </c>
-      <c r="B5">
-        <v>283</v>
-      </c>
-      <c r="C5">
-        <v>437</v>
-      </c>
-      <c r="D5">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>257</v>
-      </c>
-      <c r="B6">
-        <v>2759</v>
-      </c>
-      <c r="C6">
-        <v>59</v>
-      </c>
-      <c r="D6">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>303</v>
-      </c>
-      <c r="B7">
-        <v>283</v>
-      </c>
-      <c r="C7">
-        <v>306</v>
-      </c>
-      <c r="D7">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>365</v>
-      </c>
-      <c r="B8">
-        <v>2723</v>
-      </c>
-      <c r="C8">
-        <v>297</v>
-      </c>
-      <c r="D8">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>425</v>
-      </c>
-      <c r="B9">
-        <v>2283</v>
-      </c>
-      <c r="C9">
-        <v>307</v>
-      </c>
-      <c r="D9">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>634</v>
-      </c>
-      <c r="B10">
-        <v>584</v>
-      </c>
-      <c r="C10">
-        <v>309</v>
-      </c>
-      <c r="D10">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>714</v>
-      </c>
-      <c r="B11">
-        <v>2473</v>
-      </c>
-      <c r="C11">
-        <v>405</v>
-      </c>
-      <c r="D11">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>824</v>
-      </c>
-      <c r="B12">
-        <v>995</v>
-      </c>
-      <c r="C12">
-        <v>106</v>
-      </c>
-      <c r="D12">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>933</v>
-      </c>
-      <c r="B13">
-        <v>172</v>
-      </c>
-      <c r="C13">
-        <v>260</v>
-      </c>
-      <c r="D13">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1036</v>
-      </c>
-      <c r="B14">
-        <v>2118</v>
-      </c>
-      <c r="C14">
-        <v>161</v>
-      </c>
-      <c r="D14">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1239</v>
-      </c>
-      <c r="B15">
-        <v>2188</v>
-      </c>
-      <c r="C15">
-        <v>334</v>
-      </c>
-      <c r="D15">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1253</v>
-      </c>
-      <c r="B16">
-        <v>118</v>
-      </c>
-      <c r="C16">
-        <v>57</v>
-      </c>
-      <c r="D16">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1315</v>
-      </c>
-      <c r="B17">
-        <v>2822</v>
-      </c>
-      <c r="C17">
-        <v>364</v>
-      </c>
-      <c r="D17">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>812</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1346</v>
-      </c>
-      <c r="B18">
-        <v>759</v>
-      </c>
-      <c r="C18">
-        <v>43</v>
-      </c>
-      <c r="D18">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1616</v>
-      </c>
-      <c r="B19">
-        <v>2473</v>
-      </c>
-      <c r="C19">
-        <v>457</v>
-      </c>
-      <c r="D19">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1698</v>
-      </c>
-      <c r="B20">
-        <v>2995</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1729</v>
-      </c>
-      <c r="B21">
-        <v>2822</v>
-      </c>
-      <c r="C21">
-        <v>384</v>
-      </c>
-      <c r="D21">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>812</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1764</v>
-      </c>
-      <c r="B22">
-        <v>473</v>
-      </c>
-      <c r="C22">
-        <v>428</v>
-      </c>
-      <c r="D22">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1797</v>
-      </c>
-      <c r="B23">
-        <v>2844</v>
-      </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2036</v>
-      </c>
-      <c r="B24">
-        <v>995</v>
-      </c>
-      <c r="C24">
-        <v>121</v>
-      </c>
-      <c r="D24">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2118</v>
-      </c>
-      <c r="B25">
-        <v>394</v>
-      </c>
-      <c r="C25">
-        <v>177</v>
-      </c>
-      <c r="D25">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>826</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2124</v>
-      </c>
-      <c r="B26">
-        <v>2723</v>
-      </c>
-      <c r="C26">
-        <v>245</v>
-      </c>
-      <c r="D26">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>711</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2228</v>
-      </c>
-      <c r="B27">
-        <v>2394</v>
-      </c>
-      <c r="C27">
-        <v>34</v>
-      </c>
-      <c r="D27">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>826</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2249</v>
-      </c>
-      <c r="B28">
-        <v>2822</v>
-      </c>
-      <c r="C28">
-        <v>451</v>
-      </c>
-      <c r="D28">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>812</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2389</v>
-      </c>
-      <c r="B29">
-        <v>2188</v>
-      </c>
-      <c r="C29">
-        <v>408</v>
-      </c>
-      <c r="D29">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2397</v>
-      </c>
-      <c r="B30">
-        <v>995</v>
-      </c>
-      <c r="C30">
-        <v>200</v>
-      </c>
-      <c r="D30">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2484</v>
-      </c>
-      <c r="B31">
-        <v>723</v>
-      </c>
-      <c r="C31">
-        <v>265</v>
-      </c>
-      <c r="D31">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>711</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2592</v>
-      </c>
-      <c r="B32">
-        <v>844</v>
-      </c>
-      <c r="C32">
-        <v>196</v>
-      </c>
-      <c r="D32">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>697</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2678</v>
-      </c>
-      <c r="B33">
-        <v>844</v>
-      </c>
-      <c r="C33">
-        <v>219</v>
-      </c>
-      <c r="D33">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>697</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2686</v>
-      </c>
-      <c r="B34">
-        <v>2283</v>
-      </c>
-      <c r="C34">
-        <v>298</v>
-      </c>
-      <c r="D34">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2821</v>
-      </c>
-      <c r="B35">
-        <v>995</v>
-      </c>
-      <c r="C35">
-        <v>127</v>
-      </c>
-      <c r="D35">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2939</v>
-      </c>
-      <c r="B36">
-        <v>188</v>
-      </c>
-      <c r="C36">
-        <v>320</v>
-      </c>
-      <c r="D36">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2945</v>
-      </c>
-      <c r="B37">
-        <v>2584</v>
-      </c>
-      <c r="C37">
-        <v>408</v>
-      </c>
-      <c r="D37">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>687</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>3047</v>
-      </c>
-      <c r="B38">
-        <v>723</v>
-      </c>
-      <c r="C38">
-        <v>437</v>
-      </c>
-      <c r="D38">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>711</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>3162</v>
-      </c>
-      <c r="B39">
-        <v>2995</v>
-      </c>
-      <c r="C39">
-        <v>62</v>
-      </c>
-      <c r="D39">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>3324</v>
-      </c>
-      <c r="B40">
-        <v>2172</v>
-      </c>
-      <c r="C40">
-        <v>455</v>
-      </c>
-      <c r="D40">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>3327</v>
-      </c>
-      <c r="B41">
-        <v>2995</v>
-      </c>
-      <c r="C41">
-        <v>14</v>
-      </c>
-      <c r="D41">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>3530</v>
-      </c>
-      <c r="B42">
-        <v>118</v>
-      </c>
-      <c r="C42">
-        <v>69</v>
-      </c>
-      <c r="D42">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>3578</v>
-      </c>
-      <c r="B43">
-        <v>2188</v>
-      </c>
-      <c r="C43">
-        <v>447</v>
-      </c>
-      <c r="D43">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>3755</v>
-      </c>
-      <c r="B44">
-        <v>2172</v>
-      </c>
-      <c r="C44">
-        <v>273</v>
-      </c>
-      <c r="D44">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>3803</v>
-      </c>
-      <c r="B45">
-        <v>172</v>
-      </c>
-      <c r="C45">
-        <v>393</v>
-      </c>
-      <c r="D45">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>3919</v>
-      </c>
-      <c r="B46">
-        <v>2188</v>
-      </c>
-      <c r="C46">
-        <v>425</v>
-      </c>
-      <c r="D46">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>4037</v>
-      </c>
-      <c r="B47">
-        <v>2172</v>
-      </c>
-      <c r="C47">
-        <v>320</v>
-      </c>
-      <c r="D47">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>4085</v>
-      </c>
-      <c r="B48">
-        <v>283</v>
-      </c>
-      <c r="C48">
-        <v>301</v>
-      </c>
-      <c r="D48">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>787</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>4284</v>
-      </c>
-      <c r="B49">
-        <v>13</v>
-      </c>
-      <c r="C49">
-        <v>24</v>
-      </c>
-      <c r="D49">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>826</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>4295</v>
-      </c>
-      <c r="B50">
-        <v>2473</v>
-      </c>
-      <c r="C50">
-        <v>334</v>
-      </c>
-      <c r="D50">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>4461</v>
-      </c>
-      <c r="B51">
-        <v>822</v>
-      </c>
-      <c r="C51">
-        <v>302</v>
-      </c>
-      <c r="D51">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>812</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>4474</v>
-      </c>
-      <c r="B52">
-        <v>759</v>
-      </c>
-      <c r="C52">
-        <v>55</v>
-      </c>
-      <c r="D52">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>4620</v>
-      </c>
-      <c r="B53">
-        <v>394</v>
-      </c>
-      <c r="C53">
-        <v>57</v>
-      </c>
-      <c r="D53">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>826</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>4748</v>
-      </c>
-      <c r="B54">
-        <v>2188</v>
-      </c>
-      <c r="C54">
-        <v>321</v>
-      </c>
-      <c r="D54">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E54">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>4818</v>
-      </c>
-      <c r="B55">
-        <v>822</v>
-      </c>
-      <c r="C55">
-        <v>424</v>
-      </c>
-      <c r="D55">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>812</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>4858</v>
-      </c>
-      <c r="B56">
-        <v>394</v>
-      </c>
-      <c r="C56">
-        <v>164</v>
-      </c>
-      <c r="D56">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>826</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>4942</v>
-      </c>
-      <c r="B57">
-        <v>2473</v>
-      </c>
-      <c r="C57">
-        <v>340</v>
-      </c>
-      <c r="D57">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>5055</v>
-      </c>
-      <c r="B58">
-        <v>2394</v>
-      </c>
-      <c r="C58">
-        <v>84</v>
-      </c>
-      <c r="D58">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>826</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>5305</v>
-      </c>
-      <c r="B59">
-        <v>2723</v>
-      </c>
-      <c r="C59">
-        <v>260</v>
-      </c>
-      <c r="D59">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>711</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>5649</v>
-      </c>
-      <c r="B60">
-        <v>2528</v>
-      </c>
-      <c r="C60">
-        <v>390</v>
-      </c>
-      <c r="D60">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>812</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>5836</v>
-      </c>
-      <c r="B61">
-        <v>2188</v>
-      </c>
-      <c r="C61">
-        <v>367</v>
-      </c>
-      <c r="D61">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>2</v>
-      </c>
-      <c r="E61">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>5890</v>
-      </c>
-      <c r="B62">
-        <v>2118</v>
-      </c>
-      <c r="C62">
-        <v>181</v>
-      </c>
-      <c r="D62">
-        <f>INDEX(Reservations[Hall (won''t be transferred to database)],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <f>INDEX(Reservations[Screening],MATCH(SeatReservations[[#This Row],[Reservation]],Reservations[Id],0))</f>
-        <v>744</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDEBA19-F944-4AE9-8ED5-C4CB69B78077}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:B481"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
@@ -9617,854 +10531,9 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C862FB4C-3598-4E72-A479-9E829D5C7DEF}">
-  <dimension ref="A1:S16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="18" width="3.88671875" customWidth="1"/>
-    <col min="19" max="19" width="4.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f>COUNTIFS(Seat!B:B,A2,Seat!C:C,"")</f>
-        <v>240</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f>COUNTIFS(Seat!B:B,A3,Seat!C:C,"")</f>
-        <v>240</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f>COUNTIFS(Seat!B:B,A4,Seat!C:C,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>COUNTIFS(Seat!B:B,A5,Seat!C:C,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f>COUNTIFS(Seat!B:B,A6,Seat!C:C,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f>COUNTIFS(Seat!B:B,A7,Seat!C:C,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f>COUNTIFS(Seat!B:B,A8,Seat!C:C,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f>COUNTIFS(Seat!B:B,A9,Seat!C:C,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f>COUNTIFS(Seat!B:B,A10,Seat!C:C,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f>COUNTIFS(Seat!B:B,A11,Seat!C:C,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D16" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992BD778-0334-46C4-85EC-CF7DDADD6D62}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -10768,7 +10837,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A362F30-CD43-4A71-AC86-0416718B46CA}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -10834,12 +10903,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1577CAE5-5BCA-4C10-AF9F-A9615F485BA3}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10892,11 +10961,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCF56E3-6699-4C7D-9EEB-4EF19E6B4CE0}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="D1" workbookViewId="0">
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -11206,6 +11275,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4E253B-1767-40E7-94E1-37ED2D08B21F}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11265,12 +11337,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428D2AFF-E536-42AC-87E9-D552A95BA3F1}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11291,13 +11363,13 @@
       <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>292</v>
+      <c r="D1" s="11" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -11305,14 +11377,14 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="str">
+      <c r="D2" s="11" t="str">
         <f>IF(ISNUMBER(MATCH(GenreMovies[[#This Row],[Movie]],Movies[Id],0)),"DA","")</f>
         <v>DA</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>33</v>
+      <c r="A3" s="10">
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>11</v>
@@ -11320,14 +11392,14 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="str">
+      <c r="D3" s="11" t="str">
         <f>IF(ISNUMBER(MATCH(GenreMovies[[#This Row],[Movie]],Movies[Id],0)),"DA","")</f>
         <v>DA</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>46</v>
+      <c r="A4" s="10">
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
@@ -11335,14 +11407,14 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="str">
+      <c r="D4" s="11" t="str">
         <f>IF(ISNUMBER(MATCH(GenreMovies[[#This Row],[Movie]],Movies[Id],0)),"DA","")</f>
         <v>DA</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>84</v>
+      <c r="A5" s="10">
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
@@ -11350,14 +11422,14 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="15" t="str">
+      <c r="D5" s="11" t="str">
         <f>IF(ISNUMBER(MATCH(GenreMovies[[#This Row],[Movie]],Movies[Id],0)),"DA","")</f>
         <v>DA</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>86</v>
+      <c r="A6" s="10">
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
@@ -11365,7 +11437,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="15" t="str">
+      <c r="D6" s="11" t="str">
         <f>IF(ISNUMBER(MATCH(GenreMovies[[#This Row],[Movie]],Movies[Id],0)),"DA","")</f>
         <v>DA</v>
       </c>
@@ -11381,12 +11453,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FF276A-F6CF-47E3-BCA8-CEA0E40AEDB1}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11437,17 +11509,17 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8988A2B6-D39B-4B95-B02F-E5D9592AA35B}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
@@ -11460,10 +11532,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -11505,31 +11577,32 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2E4947-AFC6-491E-9AD5-49B6EF60E9C4}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>74</v>
+      <c r="B1" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>76</v>
@@ -11543,13 +11616,18 @@
       <c r="F1" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>464</v>
       </c>
-      <c r="B2" s="12">
-        <v>2172</v>
+      <c r="B2" s="11">
+        <f>INDEX(Reservations[Test_Id],MATCH(Table14[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -11563,16 +11641,21 @@
         <v>4.08</v>
       </c>
       <c r="F2" s="1">
-        <f>COUNTIFS(SeatReservations!B:B,Invoices!B2)</f>
+        <f>COUNTIF(SeatReservations[Test_Reservation],Table14[[#This Row],[Test_Reservation]])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="10">
+        <v>2172</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>467</v>
       </c>
-      <c r="B3" s="12">
-        <v>2188</v>
+      <c r="B3" s="11">
+        <f>INDEX(Reservations[Test_Id],MATCH(Table14[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -11586,16 +11669,21 @@
         <v>10.200000000000001</v>
       </c>
       <c r="F3" s="1">
-        <f>COUNTIFS(SeatReservations!B:B,Invoices!B3)</f>
+        <f>COUNTIF(SeatReservations[Test_Reservation],Table14[[#This Row],[Test_Reservation]])</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="10">
+        <v>2188</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>484</v>
       </c>
-      <c r="B4" s="12">
-        <v>2283</v>
+      <c r="B4" s="11">
+        <f>INDEX(Reservations[Test_Id],MATCH(Table14[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -11609,16 +11697,21 @@
         <v>2.72</v>
       </c>
       <c r="F4" s="1">
-        <f>COUNTIFS(SeatReservations!B:B,Invoices!B4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <f>COUNTIF(SeatReservations[Test_Reservation],Table14[[#This Row],[Test_Reservation]])</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2283</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>548</v>
       </c>
-      <c r="B5" s="12">
-        <v>2584</v>
+      <c r="B5" s="11">
+        <f>INDEX(Reservations[Test_Id],MATCH(Table14[[#This Row],[Reservation]],Reservations[Id],0))</f>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -11632,9 +11725,13 @@
         <v>1.36</v>
       </c>
       <c r="F5" s="1">
-        <f>COUNTIFS(SeatReservations!B:B,Invoices!B5)</f>
-        <v>1</v>
-      </c>
+        <f>COUNTIF(SeatReservations[Test_Reservation],Table14[[#This Row],[Test_Reservation]])</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2584</v>
+      </c>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Cinema.Test/TestDatabase/TestCinemaDatabase.xlsx
+++ b/Cinema.Test/TestDatabase/TestCinemaDatabase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Cinema\Cinema.Test\TestDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370658B6-58EF-4374-BE18-99C545008574}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A2332-5722-4FB1-A8B0-2590CA07DF45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="825" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="825" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pricings" sheetId="12" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="Users" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Reservations'!$B$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Reservations!$B$1:$F$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Seat!$A$1:$C$481</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">SeatReservations!$A$1:$E$62</definedName>
   </definedNames>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="280">
   <si>
     <t>Id</t>
   </si>
@@ -796,90 +796,60 @@
     <t>AppRole</t>
   </si>
   <si>
-    <t>979ed5506bb4fdb1db9378e5d757636cdb3a433e017fcab57b0ac2aa0a17f064</t>
-  </si>
-  <si>
     <t>Camille</t>
   </si>
   <si>
     <t>Coning</t>
   </si>
   <si>
-    <t>374a3179b04721bb813f37541e1a9d11ba8ea7760e3d43dd338248944487b7a5</t>
-  </si>
-  <si>
     <t>Mattie</t>
   </si>
   <si>
     <t>Alonso</t>
   </si>
   <si>
-    <t>be6c5cd9c3ce1fe60c794302d54168f220b1a7d375005abe71ef2e5a89b0cd9b</t>
-  </si>
-  <si>
     <t>Marylin</t>
   </si>
   <si>
     <t>Digweed</t>
   </si>
   <si>
-    <t>bd53763efe340395e8ab0059e8c2e43ca015a70a6a4cbc0fa5df084861f3b02a</t>
-  </si>
-  <si>
     <t>Gerri</t>
   </si>
   <si>
     <t>Beagles</t>
   </si>
   <si>
-    <t>05d186cc78d1e3179ff018d4f07ac39e8f85a97941f1bc33c96125ecf4ffc4c7</t>
-  </si>
-  <si>
     <t>Frannie</t>
   </si>
   <si>
     <t>Yoskowitz</t>
   </si>
   <si>
-    <t>7eebc1470934a6cb35182a6e991874829a6b39d06655005b014382b874f4acb6</t>
-  </si>
-  <si>
     <t>Geoff</t>
   </si>
   <si>
     <t>Scyone</t>
   </si>
   <si>
-    <t>4f1eb5be03772bbfcc12ee97b29cae3ee2b49a43eceb8d87b3dd549b3cf9125b</t>
-  </si>
-  <si>
     <t>Willie</t>
   </si>
   <si>
     <t>Baxill</t>
   </si>
   <si>
-    <t>4368e0e38bac123655c727af74a7dcee3b35b8be259866ad96270539946a9f99</t>
-  </si>
-  <si>
     <t>Laughton</t>
   </si>
   <si>
     <t>Skeldinge</t>
   </si>
   <si>
-    <t>b5442facd7e81dbdd0ae199aad2ae3f371d2b95d1c4c3b0495f49df4232debe3</t>
-  </si>
-  <si>
     <t>Emile</t>
   </si>
   <si>
     <t>Theunissen</t>
   </si>
   <si>
-    <t>18b8eab87f2558499795d23dba9e78606efa7cd7301c61b5ab9c82a40047aa3a</t>
-  </si>
-  <si>
     <t>Jock</t>
   </si>
   <si>
@@ -920,6 +890,9 @@
   </si>
   <si>
     <t>OrderNumber</t>
+  </si>
+  <si>
+    <t>P4$$W0RD123#</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1292,7 @@
       <calculatedColumnFormula>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{02492577-30BC-4736-89A6-7BCB43316500}" name="Number of SeatReservations" dataDxfId="12" dataCellStyle="Normal 2">
-      <calculatedColumnFormula>COUNTIF(SeatReservations!G:G,'Reservations'!G2)</calculatedColumnFormula>
+      <calculatedColumnFormula>COUNTIF(SeatReservations!G:G,Reservations!G2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{6629A0B4-1EED-4F00-8980-01C1615D1E46}" name="Movie" dataDxfId="11" dataCellStyle="Normal 2">
       <calculatedColumnFormula>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</calculatedColumnFormula>
@@ -3128,13 +3101,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>154</v>
@@ -3170,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G2)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="4">
@@ -3202,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G3)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G3)</f>
         <v>0</v>
       </c>
       <c r="F3" s="4">
@@ -3234,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G4)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G4)</f>
         <v>0</v>
       </c>
       <c r="F4" s="4">
@@ -3266,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G5)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G5)</f>
         <v>0</v>
       </c>
       <c r="F5" s="4">
@@ -3298,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G6)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G6)</f>
         <v>0</v>
       </c>
       <c r="F6" s="4">
@@ -3330,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G7)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G7)</f>
         <v>0</v>
       </c>
       <c r="F7" s="4">
@@ -3362,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G8)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G8)</f>
         <v>0</v>
       </c>
       <c r="F8" s="4">
@@ -3394,7 +3367,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G9)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G9)</f>
         <v>0</v>
       </c>
       <c r="F9" s="4">
@@ -3426,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G10)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G10)</f>
         <v>0</v>
       </c>
       <c r="F10" s="4">
@@ -3458,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G11)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G11)</f>
         <v>0</v>
       </c>
       <c r="F11" s="4">
@@ -3490,7 +3463,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G12)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G12)</f>
         <v>0</v>
       </c>
       <c r="F12" s="4">
@@ -3522,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G13)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G13)</f>
         <v>0</v>
       </c>
       <c r="F13" s="4">
@@ -3554,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G14)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G14)</f>
         <v>0</v>
       </c>
       <c r="F14" s="4">
@@ -3586,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G15)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G15)</f>
         <v>0</v>
       </c>
       <c r="F15" s="4">
@@ -3618,7 +3591,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G16)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G16)</f>
         <v>0</v>
       </c>
       <c r="F16" s="4">
@@ -3650,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G17)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G17)</f>
         <v>0</v>
       </c>
       <c r="F17" s="4">
@@ -3682,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G18)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G18)</f>
         <v>0</v>
       </c>
       <c r="F18" s="4">
@@ -3714,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G19)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G19)</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
@@ -3746,7 +3719,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G20)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G20)</f>
         <v>0</v>
       </c>
       <c r="F20" s="4">
@@ -3778,7 +3751,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G21)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G21)</f>
         <v>0</v>
       </c>
       <c r="F21" s="4">
@@ -3810,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G22)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G22)</f>
         <v>0</v>
       </c>
       <c r="F22" s="4">
@@ -3842,7 +3815,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G23)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G23)</f>
         <v>0</v>
       </c>
       <c r="F23" s="4">
@@ -3874,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G24)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G24)</f>
         <v>0</v>
       </c>
       <c r="F24" s="4">
@@ -3906,7 +3879,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G25)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G25)</f>
         <v>0</v>
       </c>
       <c r="F25" s="4">
@@ -3938,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G26)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G26)</f>
         <v>0</v>
       </c>
       <c r="F26" s="4">
@@ -3970,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="4">
-        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G27)</f>
+        <f>COUNTIF(SeatReservations!G:G,Reservations!G27)</f>
         <v>0</v>
       </c>
       <c r="F27" s="4">
@@ -4022,7 +3995,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>199</v>
@@ -4034,7 +4007,7 @@
         <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>9</v>
@@ -4059,7 +4032,7 @@
       </c>
       <c r="E2" s="6">
         <f t="shared" ref="E2" ca="1" si="0">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.91666666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="F2" s="15">
         <v>43513.618055555555</v>
@@ -4084,7 +4057,7 @@
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E6" ca="1" si="1">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.78472222222222221</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="F3" s="15">
         <v>43680.631944444445</v>
@@ -4109,7 +4082,7 @@
       </c>
       <c r="E4" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95138888888888884</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="F4" s="15">
         <v>43698.944444444445</v>
@@ -4134,7 +4107,7 @@
       </c>
       <c r="E5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86111111111111116</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F5" s="15">
         <v>43674.729166666664</v>
@@ -4159,7 +4132,7 @@
       </c>
       <c r="E6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54166666666666663</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="F6" s="15">
         <v>43730.590277777781</v>
@@ -4184,7 +4157,7 @@
       </c>
       <c r="E7" s="6">
         <f t="shared" ref="E7:E8" ca="1" si="2">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.82638888888888884</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="F7" s="15">
         <v>43430.916666666664</v>
@@ -4209,7 +4182,7 @@
       </c>
       <c r="E8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84722222222222221</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="F8" s="15">
         <v>43674.826388888891</v>
@@ -4234,7 +4207,7 @@
       </c>
       <c r="E9" s="6">
         <f t="shared" ref="E9" ca="1" si="3">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.58333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="F9" s="15">
         <v>43459.861111111109</v>
@@ -4284,7 +4257,7 @@
       </c>
       <c r="E11" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.79861111111111116</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="F11" s="15">
         <v>43552.6875</v>
@@ -4309,7 +4282,7 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" ref="E12:E18" ca="1" si="5">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.79166666666666663</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="F12" s="15">
         <v>43430.611111111109</v>
@@ -4334,7 +4307,7 @@
       </c>
       <c r="E13" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="F13" s="15">
         <v>43737.923611111109</v>
@@ -4359,7 +4332,7 @@
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68055555555555547</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="F14" s="15">
         <v>43705.868055555555</v>
@@ -4384,7 +4357,7 @@
       </c>
       <c r="E15" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59722222222222221</v>
+        <v>0.94444444444444453</v>
       </c>
       <c r="F15" s="15">
         <v>43738.881944444445</v>
@@ -4409,7 +4382,7 @@
       </c>
       <c r="E16" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77083333333333337</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="F16" s="15">
         <v>43434.569444444445</v>
@@ -4434,7 +4407,7 @@
       </c>
       <c r="E17" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86111111111111116</v>
+        <v>0.8125</v>
       </c>
       <c r="F17" s="15">
         <v>43613.944444444445</v>
@@ -4459,7 +4432,7 @@
       </c>
       <c r="E18" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9375</v>
+        <v>0.90972222222222221</v>
       </c>
       <c r="F18" s="15">
         <v>43666.847222222219</v>
@@ -4484,7 +4457,7 @@
       </c>
       <c r="E19" s="6">
         <f t="shared" ref="E19:E23" ca="1" si="6">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.89583333333333337</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="F19" s="15">
         <v>43694.951388888891</v>
@@ -4509,7 +4482,7 @@
       </c>
       <c r="E20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.67361111111111116</v>
+        <v>0.8125</v>
       </c>
       <c r="F20" s="15">
         <v>43661.854166666664</v>
@@ -4534,7 +4507,7 @@
       </c>
       <c r="E21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66666666666666663</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="F21" s="15">
         <v>43629.652777777781</v>
@@ -4559,7 +4532,7 @@
       </c>
       <c r="E22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.57638888888888895</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="F22" s="15">
         <v>43430.847222222219</v>
@@ -4584,7 +4557,7 @@
       </c>
       <c r="E23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.75</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F23" s="15">
         <v>43632.618055555555</v>
@@ -4609,7 +4582,7 @@
       </c>
       <c r="E24" s="6">
         <f t="shared" ref="E24:E29" ca="1" si="7">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.86111111111111116</v>
+        <v>0.90972222222222221</v>
       </c>
       <c r="F24" s="15">
         <v>43731.548611111109</v>
@@ -4634,7 +4607,7 @@
       </c>
       <c r="E25" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.85416666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F25" s="15">
         <v>43769.847222222219</v>
@@ -4659,7 +4632,7 @@
       </c>
       <c r="E26" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79166666666666663</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="F26" s="15">
         <v>43508.583333333336</v>
@@ -4684,7 +4657,7 @@
       </c>
       <c r="E27" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.75</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="F27" s="15">
         <v>43441.548611111109</v>
@@ -4709,7 +4682,7 @@
       </c>
       <c r="E28" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.63888888888888895</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="F28" s="15">
         <v>43725.75</v>
@@ -4734,7 +4707,7 @@
       </c>
       <c r="E29" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.75</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="F29" s="15">
         <v>43639.694444444445</v>
@@ -4759,7 +4732,7 @@
       </c>
       <c r="E30" s="6">
         <f t="shared" ref="E30" ca="1" si="8">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.72222222222222221</v>
+        <v>0.75</v>
       </c>
       <c r="F30" s="15">
         <v>43704.902777777781</v>
@@ -4784,7 +4757,7 @@
       </c>
       <c r="E31" s="6">
         <f t="shared" ref="E31:E36" ca="1" si="9">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.72916666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="F31" s="15">
         <v>43727.638888888891</v>
@@ -4809,7 +4782,7 @@
       </c>
       <c r="E32" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.84722222222222221</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F32" s="15">
         <v>43773.715277777781</v>
@@ -4834,7 +4807,7 @@
       </c>
       <c r="E33" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.61805555555555558</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="F33" s="15">
         <v>43660.868055555555</v>
@@ -4859,7 +4832,7 @@
       </c>
       <c r="E34" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.70138888888888884</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="F34" s="15">
         <v>43532.701388888891</v>
@@ -4884,7 +4857,7 @@
       </c>
       <c r="E35" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.90972222222222221</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="F35" s="15">
         <v>43719.652777777781</v>
@@ -4909,7 +4882,7 @@
       </c>
       <c r="E36" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.875</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="F36" s="15">
         <v>43756.583333333336</v>
@@ -4934,7 +4907,7 @@
       </c>
       <c r="E37" s="6">
         <f t="shared" ref="E37:E39" ca="1" si="10">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.70833333333333337</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="F37" s="15">
         <v>43542.888888888891</v>
@@ -4959,7 +4932,7 @@
       </c>
       <c r="E38" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6875</v>
+        <v>0.90277777777777779</v>
       </c>
       <c r="F38" s="15">
         <v>43672.708333333336</v>
@@ -4984,7 +4957,7 @@
       </c>
       <c r="E39" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.71527777777777779</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="F39" s="15">
         <v>43423.902777777781</v>
@@ -5009,7 +4982,7 @@
       </c>
       <c r="E40" s="6">
         <f t="shared" ref="E40:E43" ca="1" si="11">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.90972222222222221</v>
+        <v>0.875</v>
       </c>
       <c r="F40" s="15">
         <v>43678.916666666664</v>
@@ -5034,7 +5007,7 @@
       </c>
       <c r="E41" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.65972222222222221</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="F41" s="15">
         <v>43514.958333333336</v>
@@ -5059,7 +5032,7 @@
       </c>
       <c r="E42" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.61111111111111105</v>
+        <v>0.88194444444444453</v>
       </c>
       <c r="F42" s="15">
         <v>43623.861111111109</v>
@@ -5084,7 +5057,7 @@
       </c>
       <c r="E43" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.6875</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="F43" s="15">
         <v>43701.722222222219</v>
@@ -5133,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
         <v>239</v>
@@ -5148,14 +5121,14 @@
         <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="H1" t="e">
         <f>COUNT(#REF!)-COUNTIFS(#REF!,1)</f>
         <v>#REF!</v>
       </c>
       <c r="J1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -6585,13 +6558,13 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f ca="1">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.64583333333333337</v>
+        <v>0.81944444444444453</v>
       </c>
     </row>
   </sheetData>
@@ -6620,7 +6593,7 @@
         <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -12398,8 +12371,8 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12445,14 +12418,14 @@
         <f>F2</f>
         <v>camilleconing@cinema.com</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>IF(G2=1,LOWER(D2&amp;E2)&amp;"@customers.com",LOWER(D2&amp;E2)&amp;"@cinema.com")</f>
@@ -12470,14 +12443,14 @@
         <f t="shared" ref="B3:B11" si="0">F3</f>
         <v>mattiealonso@cinema.com</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F11" si="1">IF(G3=1,LOWER(D3&amp;E3)&amp;"@customers.com",LOWER(D3&amp;E3)&amp;"@cinema.com")</f>
@@ -12495,14 +12468,14 @@
         <f t="shared" si="0"/>
         <v>marylindigweed@cinema.com</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>253</v>
+      <c r="C4" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12520,14 +12493,14 @@
         <f t="shared" si="0"/>
         <v>gerribeagles@cinema.com</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>256</v>
+      <c r="C5" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12545,14 +12518,14 @@
         <f t="shared" si="0"/>
         <v>frannieyoskowitz@cinema.com</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>259</v>
+      <c r="C6" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12570,14 +12543,14 @@
         <f t="shared" si="0"/>
         <v>geoffscyone@customers.com</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>262</v>
+      <c r="C7" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12595,14 +12568,14 @@
         <f t="shared" si="0"/>
         <v>williebaxill@customers.com</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>265</v>
+      <c r="C8" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12620,14 +12593,14 @@
         <f t="shared" si="0"/>
         <v>laughtonskeldinge@customers.com</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>268</v>
+      <c r="C9" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12645,14 +12618,14 @@
         <f t="shared" si="0"/>
         <v>emiletheunissen@customers.com</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>271</v>
+      <c r="C10" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12670,14 +12643,14 @@
         <f t="shared" si="0"/>
         <v>jockbagwell@customers.com</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>274</v>
+      <c r="C11" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -13234,7 +13207,7 @@
         <v>58</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -13383,7 +13356,7 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -13402,10 +13375,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -13472,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>66</v>
@@ -13484,7 +13457,7 @@
         <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>64</v>

--- a/Cinema.Test/TestDatabase/TestCinemaDatabase.xlsx
+++ b/Cinema.Test/TestDatabase/TestCinemaDatabase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Cinema\Cinema.Test\TestDatabase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Cinema - RS1\Cinema\Cinema.Test\TestDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A2332-5722-4FB1-A8B0-2590CA07DF45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AE7E14-DF33-4E4F-AC31-3047A2BAF114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="825" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pricings" sheetId="12" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="Users" sheetId="18" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Reservations!$B$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Reservations'!$B$1:$F$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Seat!$A$1:$C$481</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">SeatReservations!$A$1:$E$62</definedName>
   </definedNames>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="279">
   <si>
     <t>Id</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Administrator</t>
-  </si>
-  <si>
-    <t>Manager</t>
   </si>
   <si>
     <t>Title</t>
@@ -1292,7 +1289,7 @@
       <calculatedColumnFormula>INDEX(Screenings[Hall],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{02492577-30BC-4736-89A6-7BCB43316500}" name="Number of SeatReservations" dataDxfId="12" dataCellStyle="Normal 2">
-      <calculatedColumnFormula>COUNTIF(SeatReservations!G:G,Reservations!G2)</calculatedColumnFormula>
+      <calculatedColumnFormula>COUNTIF(SeatReservations!G:G,'Reservations'!G2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{6629A0B4-1EED-4F00-8980-01C1615D1E46}" name="Movie" dataDxfId="11" dataCellStyle="Normal 2">
       <calculatedColumnFormula>INDEX(Screenings[Movie],MATCH(Reservations[[#This Row],[Test_Screening]],Screenings[Test_Id],0))</calculatedColumnFormula>
@@ -1614,8 +1611,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1632,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1640,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="3">
         <v>7</v>
@@ -1651,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="3">
         <v>8</v>
@@ -1662,7 +1659,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3">
         <v>10</v>
@@ -1673,7 +1670,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3">
         <v>6</v>
@@ -1684,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="3">
         <v>12</v>
@@ -1726,28 +1723,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1755,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1">
         <v>108</v>
@@ -1764,16 +1761,16 @@
         <v>1995</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1781,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1">
         <v>127</v>
@@ -1790,16 +1787,16 @@
         <v>2012</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1807,7 +1804,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1">
         <v>158</v>
@@ -1816,16 +1813,16 @@
         <v>1970</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1833,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1">
         <v>96</v>
@@ -1842,16 +1839,16 @@
         <v>1992</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1859,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1">
         <v>119</v>
@@ -1868,16 +1865,16 @@
         <v>1970</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1885,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1">
         <v>160</v>
@@ -1894,16 +1891,16 @@
         <v>1971</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1911,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1">
         <v>93</v>
@@ -1920,16 +1917,16 @@
         <v>1986</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1937,7 +1934,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1">
         <v>68</v>
@@ -1946,16 +1943,16 @@
         <v>1980</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1963,7 +1960,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1">
         <v>61</v>
@@ -1972,16 +1969,16 @@
         <v>2002</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1989,7 +1986,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1">
         <v>96</v>
@@ -1998,16 +1995,16 @@
         <v>1992</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2015,7 +2012,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1">
         <v>143</v>
@@ -2024,16 +2021,16 @@
         <v>2002</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2041,7 +2038,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="1">
         <v>115</v>
@@ -2050,16 +2047,16 @@
         <v>1968</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2096,19 +2093,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2116,13 +2113,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
@@ -2136,13 +2133,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
@@ -2156,13 +2153,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
@@ -2176,13 +2173,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -2196,13 +2193,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -2216,13 +2213,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -2236,13 +2233,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -2256,13 +2253,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -2276,13 +2273,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -2296,13 +2293,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -2345,16 +2342,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2362,7 +2359,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2375,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2385,7 +2382,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1">
         <v>9</v>
@@ -2398,7 +2395,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2406,7 +2403,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
@@ -2424,7 +2421,7 @@
         <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -2442,7 +2439,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -2460,7 +2457,7 @@
         <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -2478,7 +2475,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="1">
         <v>9</v>
@@ -2496,7 +2493,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -2514,7 +2511,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -2532,7 +2529,7 @@
         <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -2550,7 +2547,7 @@
         <v>104</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -2568,7 +2565,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -2586,7 +2583,7 @@
         <v>118</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="1">
         <v>9</v>
@@ -2604,7 +2601,7 @@
         <v>133</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -2622,7 +2619,7 @@
         <v>142</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="1">
         <v>6</v>
@@ -2640,7 +2637,7 @@
         <v>148</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="1">
         <v>6</v>
@@ -2658,7 +2655,7 @@
         <v>152</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -2676,7 +2673,7 @@
         <v>155</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -2694,7 +2691,7 @@
         <v>158</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" s="1">
         <v>9</v>
@@ -2712,7 +2709,7 @@
         <v>175</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -2730,7 +2727,7 @@
         <v>176</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C22" s="1">
         <v>7</v>
@@ -2748,7 +2745,7 @@
         <v>178</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -2766,7 +2763,7 @@
         <v>186</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -2784,7 +2781,7 @@
         <v>221</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C25" s="1">
         <v>8</v>
@@ -2802,7 +2799,7 @@
         <v>241</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C26" s="1">
         <v>9</v>
@@ -2820,7 +2817,7 @@
         <v>248</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -2838,7 +2835,7 @@
         <v>250</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -2856,7 +2853,7 @@
         <v>252</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -2874,7 +2871,7 @@
         <v>258</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C30" s="1">
         <v>4</v>
@@ -2892,7 +2889,7 @@
         <v>265</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C31" s="1">
         <v>5</v>
@@ -2910,7 +2907,7 @@
         <v>283</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C32" s="1">
         <v>4</v>
@@ -2928,7 +2925,7 @@
         <v>297</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -2946,7 +2943,7 @@
         <v>302</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
@@ -2964,7 +2961,7 @@
         <v>315</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C35" s="1">
         <v>6</v>
@@ -2982,7 +2979,7 @@
         <v>320</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
@@ -3000,7 +2997,7 @@
         <v>324</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C37" s="1">
         <v>5</v>
@@ -3018,7 +3015,7 @@
         <v>332</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
@@ -3036,7 +3033,7 @@
         <v>342</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
@@ -3054,7 +3051,7 @@
         <v>349</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C40" s="1">
         <v>5</v>
@@ -3101,28 +3098,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>276</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -3143,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G2)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="4">
@@ -3175,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G3)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G3)</f>
         <v>0</v>
       </c>
       <c r="F3" s="4">
@@ -3207,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G4)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G4)</f>
         <v>0</v>
       </c>
       <c r="F4" s="4">
@@ -3239,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G5)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G5)</f>
         <v>0</v>
       </c>
       <c r="F5" s="4">
@@ -3271,7 +3268,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G6)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G6)</f>
         <v>0</v>
       </c>
       <c r="F6" s="4">
@@ -3303,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G7)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G7)</f>
         <v>0</v>
       </c>
       <c r="F7" s="4">
@@ -3335,7 +3332,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G8)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G8)</f>
         <v>0</v>
       </c>
       <c r="F8" s="4">
@@ -3367,7 +3364,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G9)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G9)</f>
         <v>0</v>
       </c>
       <c r="F9" s="4">
@@ -3399,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G10)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G10)</f>
         <v>0</v>
       </c>
       <c r="F10" s="4">
@@ -3431,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G11)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G11)</f>
         <v>0</v>
       </c>
       <c r="F11" s="4">
@@ -3463,7 +3460,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G12)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G12)</f>
         <v>0</v>
       </c>
       <c r="F12" s="4">
@@ -3495,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G13)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G13)</f>
         <v>0</v>
       </c>
       <c r="F13" s="4">
@@ -3527,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G14)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G14)</f>
         <v>0</v>
       </c>
       <c r="F14" s="4">
@@ -3559,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G15)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G15)</f>
         <v>0</v>
       </c>
       <c r="F15" s="4">
@@ -3591,7 +3588,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G16)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G16)</f>
         <v>0</v>
       </c>
       <c r="F16" s="4">
@@ -3623,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G17)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G17)</f>
         <v>0</v>
       </c>
       <c r="F17" s="4">
@@ -3655,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G18)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G18)</f>
         <v>0</v>
       </c>
       <c r="F18" s="4">
@@ -3687,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G19)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G19)</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
@@ -3719,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G20)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G20)</f>
         <v>0</v>
       </c>
       <c r="F20" s="4">
@@ -3751,7 +3748,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G21)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G21)</f>
         <v>0</v>
       </c>
       <c r="F21" s="4">
@@ -3783,7 +3780,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G22)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G22)</f>
         <v>0</v>
       </c>
       <c r="F22" s="4">
@@ -3815,7 +3812,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G23)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G23)</f>
         <v>0</v>
       </c>
       <c r="F23" s="4">
@@ -3847,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G24)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G24)</f>
         <v>0</v>
       </c>
       <c r="F24" s="4">
@@ -3879,7 +3876,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G25)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G25)</f>
         <v>0</v>
       </c>
       <c r="F25" s="4">
@@ -3911,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G26)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G26)</f>
         <v>0</v>
       </c>
       <c r="F26" s="4">
@@ -3943,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="4">
-        <f>COUNTIF(SeatReservations!G:G,Reservations!G27)</f>
+        <f>COUNTIF(SeatReservations!G:G,'Reservations'!G27)</f>
         <v>0</v>
       </c>
       <c r="F27" s="4">
@@ -3995,22 +3992,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -4022,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -4032,7 +4029,7 @@
       </c>
       <c r="E2" s="6">
         <f t="shared" ref="E2" ca="1" si="0">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.85416666666666663</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="F2" s="15">
         <v>43513.618055555555</v>
@@ -4047,7 +4044,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -4057,7 +4054,7 @@
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E6" ca="1" si="1">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.91666666666666663</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="F3" s="15">
         <v>43680.631944444445</v>
@@ -4072,7 +4069,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -4082,7 +4079,7 @@
       </c>
       <c r="E4" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85416666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="F4" s="15">
         <v>43698.944444444445</v>
@@ -4097,7 +4094,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -4107,7 +4104,7 @@
       </c>
       <c r="E5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72916666666666663</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="F5" s="15">
         <v>43674.729166666664</v>
@@ -4122,7 +4119,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -4132,7 +4129,7 @@
       </c>
       <c r="E6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80555555555555547</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F6" s="15">
         <v>43730.590277777781</v>
@@ -4147,7 +4144,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -4157,7 +4154,7 @@
       </c>
       <c r="E7" s="6">
         <f t="shared" ref="E7:E8" ca="1" si="2">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.56944444444444442</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="F7" s="15">
         <v>43430.916666666664</v>
@@ -4172,7 +4169,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -4182,7 +4179,7 @@
       </c>
       <c r="E8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71527777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F8" s="15">
         <v>43674.826388888891</v>
@@ -4197,7 +4194,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -4207,7 +4204,7 @@
       </c>
       <c r="E9" s="6">
         <f t="shared" ref="E9" ca="1" si="3">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.875</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="F9" s="15">
         <v>43459.861111111109</v>
@@ -4222,7 +4219,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -4232,7 +4229,7 @@
       </c>
       <c r="E10" s="6">
         <f t="shared" ref="E10:E11" ca="1" si="4">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.66666666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F10" s="15">
         <v>43531.555555555555</v>
@@ -4247,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -4257,7 +4254,7 @@
       </c>
       <c r="E11" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61805555555555558</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F11" s="15">
         <v>43552.6875</v>
@@ -4272,7 +4269,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -4282,7 +4279,7 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" ref="E12:E18" ca="1" si="5">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.95138888888888884</v>
+        <v>0.86805555555555547</v>
       </c>
       <c r="F12" s="15">
         <v>43430.611111111109</v>
@@ -4297,7 +4294,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -4307,7 +4304,7 @@
       </c>
       <c r="E13" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80555555555555547</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="F13" s="15">
         <v>43737.923611111109</v>
@@ -4322,7 +4319,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -4332,7 +4329,7 @@
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.70138888888888884</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="F14" s="15">
         <v>43705.868055555555</v>
@@ -4347,7 +4344,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -4357,7 +4354,7 @@
       </c>
       <c r="E15" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.94444444444444453</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F15" s="15">
         <v>43738.881944444445</v>
@@ -4372,7 +4369,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -4382,7 +4379,7 @@
       </c>
       <c r="E16" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56944444444444442</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F16" s="15">
         <v>43434.569444444445</v>
@@ -4397,7 +4394,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -4407,7 +4404,7 @@
       </c>
       <c r="E17" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8125</v>
+        <v>0.94444444444444453</v>
       </c>
       <c r="F17" s="15">
         <v>43613.944444444445</v>
@@ -4422,7 +4419,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -4432,7 +4429,7 @@
       </c>
       <c r="E18" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90972222222222221</v>
+        <v>0.93055555555555547</v>
       </c>
       <c r="F18" s="15">
         <v>43666.847222222219</v>
@@ -4447,7 +4444,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -4457,7 +4454,7 @@
       </c>
       <c r="E19" s="6">
         <f t="shared" ref="E19:E23" ca="1" si="6">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.95138888888888884</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F19" s="15">
         <v>43694.951388888891</v>
@@ -4472,7 +4469,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -4482,7 +4479,7 @@
       </c>
       <c r="E20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8125</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F20" s="15">
         <v>43661.854166666664</v>
@@ -4497,7 +4494,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -4507,7 +4504,7 @@
       </c>
       <c r="E21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.57638888888888895</v>
+        <v>0.8125</v>
       </c>
       <c r="F21" s="15">
         <v>43629.652777777781</v>
@@ -4522,7 +4519,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -4532,7 +4529,7 @@
       </c>
       <c r="E22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84722222222222221</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F22" s="15">
         <v>43430.847222222219</v>
@@ -4547,7 +4544,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -4557,7 +4554,7 @@
       </c>
       <c r="E23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.64583333333333337</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="F23" s="15">
         <v>43632.618055555555</v>
@@ -4572,7 +4569,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -4582,7 +4579,7 @@
       </c>
       <c r="E24" s="6">
         <f t="shared" ref="E24:E29" ca="1" si="7">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.90972222222222221</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="F24" s="15">
         <v>43731.548611111109</v>
@@ -4597,7 +4594,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -4607,7 +4604,7 @@
       </c>
       <c r="E25" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.64583333333333337</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="F25" s="15">
         <v>43769.847222222219</v>
@@ -4622,7 +4619,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -4632,7 +4629,7 @@
       </c>
       <c r="E26" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.86111111111111116</v>
+        <v>0.90277777777777779</v>
       </c>
       <c r="F26" s="15">
         <v>43508.583333333336</v>
@@ -4647,7 +4644,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -4657,7 +4654,7 @@
       </c>
       <c r="E27" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.78472222222222221</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F27" s="15">
         <v>43441.548611111109</v>
@@ -4672,7 +4669,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -4682,7 +4679,7 @@
       </c>
       <c r="E28" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.84722222222222221</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F28" s="15">
         <v>43725.75</v>
@@ -4697,7 +4694,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -4707,7 +4704,7 @@
       </c>
       <c r="E29" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.72222222222222221</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F29" s="15">
         <v>43639.694444444445</v>
@@ -4722,7 +4719,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -4732,7 +4729,7 @@
       </c>
       <c r="E30" s="6">
         <f t="shared" ref="E30" ca="1" si="8">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.75</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="F30" s="15">
         <v>43704.902777777781</v>
@@ -4747,7 +4744,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
@@ -4757,7 +4754,7 @@
       </c>
       <c r="E31" s="6">
         <f t="shared" ref="E31:E36" ca="1" si="9">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.875</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="F31" s="15">
         <v>43727.638888888891</v>
@@ -4772,7 +4769,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
@@ -4782,7 +4779,7 @@
       </c>
       <c r="E32" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.64583333333333337</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="F32" s="15">
         <v>43773.715277777781</v>
@@ -4797,7 +4794,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -4807,7 +4804,7 @@
       </c>
       <c r="E33" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.65277777777777779</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="F33" s="15">
         <v>43660.868055555555</v>
@@ -4822,7 +4819,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
@@ -4832,7 +4829,7 @@
       </c>
       <c r="E34" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.84722222222222221</v>
+        <v>0.8125</v>
       </c>
       <c r="F34" s="15">
         <v>43532.701388888891</v>
@@ -4847,7 +4844,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -4857,7 +4854,7 @@
       </c>
       <c r="E35" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.80555555555555547</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="F35" s="15">
         <v>43719.652777777781</v>
@@ -4872,7 +4869,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C36" s="1">
         <v>2</v>
@@ -4882,7 +4879,7 @@
       </c>
       <c r="E36" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.61111111111111105</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F36" s="15">
         <v>43756.583333333336</v>
@@ -4897,7 +4894,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C37" s="1">
         <v>2</v>
@@ -4907,7 +4904,7 @@
       </c>
       <c r="E37" s="6">
         <f t="shared" ref="E37:E39" ca="1" si="10">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.67361111111111116</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="F37" s="15">
         <v>43542.888888888891</v>
@@ -4922,7 +4919,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -4932,7 +4929,7 @@
       </c>
       <c r="E38" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.90277777777777779</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="F38" s="15">
         <v>43672.708333333336</v>
@@ -4947,7 +4944,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
@@ -4957,7 +4954,7 @@
       </c>
       <c r="E39" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85416666666666663</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="F39" s="15">
         <v>43423.902777777781</v>
@@ -4972,7 +4969,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
@@ -4982,7 +4979,7 @@
       </c>
       <c r="E40" s="6">
         <f t="shared" ref="E40:E43" ca="1" si="11">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.875</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F40" s="15">
         <v>43678.916666666664</v>
@@ -4997,7 +4994,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -5007,7 +5004,7 @@
       </c>
       <c r="E41" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.74305555555555547</v>
+        <v>0.8125</v>
       </c>
       <c r="F41" s="15">
         <v>43514.958333333336</v>
@@ -5022,7 +5019,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
@@ -5032,7 +5029,7 @@
       </c>
       <c r="E42" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.88194444444444453</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F42" s="15">
         <v>43623.861111111109</v>
@@ -5047,7 +5044,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -5057,7 +5054,7 @@
       </c>
       <c r="E43" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.84027777777777779</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F43" s="15">
         <v>43701.722222222219</v>
@@ -5106,29 +5103,29 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H1" t="e">
         <f>COUNT(#REF!)-COUNTIFS(#REF!,1)</f>
         <v>#REF!</v>
       </c>
       <c r="J1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -6558,13 +6555,13 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f ca="1">TIME(RANDBETWEEN(13,22),ROUNDUP(RANDBETWEEN(0,59),-1),0)</f>
-        <v>0.81944444444444453</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
   </sheetData>
@@ -6590,10 +6587,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -12371,8 +12368,8 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12392,22 +12389,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -12419,20 +12416,20 @@
         <v>camilleconing@cinema.com</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>IF(G2=1,LOWER(D2&amp;E2)&amp;"@customers.com",LOWER(D2&amp;E2)&amp;"@cinema.com")</f>
         <v>camilleconing@cinema.com</v>
       </c>
       <c r="G2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12441,23 +12438,23 @@
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" ref="B3:B11" si="0">F3</f>
-        <v>mattiealonso@cinema.com</v>
+        <v>mattiealonso@customers.com</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F11" si="1">IF(G3=1,LOWER(D3&amp;E3)&amp;"@customers.com",LOWER(D3&amp;E3)&amp;"@cinema.com")</f>
-        <v>mattiealonso@cinema.com</v>
+        <v>mattiealonso@customers.com</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -12466,23 +12463,23 @@
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>marylindigweed@cinema.com</v>
+        <v>marylindigweed@customers.com</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>marylindigweed@cinema.com</v>
+        <v>marylindigweed@customers.com</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -12494,13 +12491,13 @@
         <v>gerribeagles@cinema.com</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12519,13 +12516,13 @@
         <v>frannieyoskowitz@cinema.com</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12544,13 +12541,13 @@
         <v>geoffscyone@customers.com</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12569,13 +12566,13 @@
         <v>williebaxill@customers.com</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12594,13 +12591,13 @@
         <v>laughtonskeldinge@customers.com</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12619,13 +12616,13 @@
         <v>emiletheunissen@customers.com</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12644,13 +12641,13 @@
         <v>jockbagwell@customers.com</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -12694,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -12702,7 +12699,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -12710,7 +12707,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -12718,7 +12715,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -12726,7 +12723,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -12739,10 +12736,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12777,14 +12774,6 @@
       </c>
       <c r="B4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -12821,25 +12810,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -12847,13 +12836,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="1">
         <v>4</v>
@@ -12862,7 +12851,7 @@
         <v>43749</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -12873,13 +12862,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
@@ -12888,7 +12877,7 @@
         <v>43581</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1">
         <v>3</v>
@@ -12900,13 +12889,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
@@ -12915,7 +12904,7 @@
         <v>43708</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -12927,13 +12916,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -12942,7 +12931,7 @@
         <v>43590</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1">
         <v>4</v>
@@ -12954,13 +12943,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -12969,7 +12958,7 @@
         <v>43723</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
@@ -12981,13 +12970,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -12996,7 +12985,7 @@
         <v>43675</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
@@ -13008,13 +12997,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -13023,7 +13012,7 @@
         <v>43690</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1">
         <v>4</v>
@@ -13035,13 +13024,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -13050,7 +13039,7 @@
         <v>43582</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1">
         <v>4</v>
@@ -13062,13 +13051,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -13077,7 +13066,7 @@
         <v>43634</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="1">
         <v>4</v>
@@ -13089,13 +13078,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -13104,7 +13093,7 @@
         <v>43550</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -13145,7 +13134,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -13153,7 +13142,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -13161,7 +13150,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -13169,7 +13158,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -13201,13 +13190,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -13322,7 +13311,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -13330,7 +13319,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -13338,7 +13327,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -13375,10 +13364,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" t="s">
         <v>273</v>
-      </c>
-      <c r="D1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -13386,7 +13375,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>16</v>
@@ -13400,7 +13389,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -13445,22 +13434,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1"/>
     </row>
